--- a/backend/checkpoints/base-ETH-TEL-13.xlsx
+++ b/backend/checkpoints/base-ETH-TEL-13.xlsx
@@ -450,7 +450,7 @@
         <v>Start Block</v>
       </c>
       <c r="B6" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
         <v>2799647519312</v>
       </c>
       <c r="F3" t="str">
-        <v>0.000146899885131172</v>
+        <v>0.000172367064041421</v>
       </c>
       <c r="G3" t="str">
-        <v>118.69</v>
+        <v>194.77</v>
       </c>
     </row>
     <row r="4">
@@ -585,10 +585,10 @@
         <v>72822838586832</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>0.000252550214933975</v>
       </c>
       <c r="G4" t="str">
-        <v>0</v>
+        <v>1978.84</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>555542429181</v>
       </c>
       <c r="F5" t="str">
-        <v>0.000029149783488542</v>
+        <v>0.000034203311955463</v>
       </c>
       <c r="G5" t="str">
-        <v>23.55</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>132321488837</v>
       </c>
       <c r="F6" t="str">
-        <v>0.000006943020996913</v>
+        <v>0.000008146692175745</v>
       </c>
       <c r="G6" t="str">
-        <v>5.6</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="7">
@@ -700,10 +700,10 @@
         <v>190323510700816</v>
       </c>
       <c r="F9" t="str">
-        <v>0.009986436387742825</v>
+        <v>0.011717726796413793</v>
       </c>
       <c r="G9" t="str">
-        <v>8069.02</v>
+        <v>13240.76</v>
       </c>
     </row>
     <row r="10">
@@ -723,10 +723,10 @@
         <v>1935228148</v>
       </c>
       <c r="F10" t="str">
-        <v>0.000000101543065933</v>
+        <v>0.000000119146996834</v>
       </c>
       <c r="G10" t="str">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -746,10 +746,10 @@
         <v>3954172914015</v>
       </c>
       <c r="F11" t="str">
-        <v>0.000207478813975961</v>
+        <v>0.000243448209533308</v>
       </c>
       <c r="G11" t="str">
-        <v>167.64</v>
+        <v>275.09</v>
       </c>
     </row>
     <row r="12">
@@ -792,10 +792,10 @@
         <v>6992043339226</v>
       </c>
       <c r="F13" t="str">
-        <v>0.000366878457476993</v>
+        <v>0.000430482042371152</v>
       </c>
       <c r="G13" t="str">
-        <v>296.43</v>
+        <v>486.43</v>
       </c>
     </row>
     <row r="14">
@@ -838,10 +838,10 @@
         <v>152036287345</v>
       </c>
       <c r="F15" t="str">
-        <v>0.000007977473232858</v>
+        <v>0.000009360481380833</v>
       </c>
       <c r="G15" t="str">
-        <v>6.44</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="16">
@@ -861,7 +861,7 @@
         <v>632075719414</v>
       </c>
       <c r="F16" t="str">
-        <v>0.000013631570260352</v>
+        <v>0.00000788185165467</v>
       </c>
       <c r="G16" t="str">
         <v>15.75</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="str">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -907,7 +907,7 @@
         <v>2134767548</v>
       </c>
       <c r="F18" t="str">
-        <v>0.000000129021378757</v>
+        <v>0.000000109602324501</v>
       </c>
       <c r="G18" t="str">
         <v>0.08</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>506486</v>
+        <v>467685</v>
       </c>
       <c r="B20" t="str">
-        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
       <c r="C20">
         <v>-887220</v>
@@ -950,761 +950,1037 @@
         <v>887220</v>
       </c>
       <c r="E20" t="str">
-        <v>24868702919482</v>
+        <v>1059244542</v>
       </c>
       <c r="F20" t="str">
-        <v>0.001304881981404184</v>
+        <v>0.000000065214949577</v>
       </c>
       <c r="G20" t="str">
-        <v>1054.34</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B21" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
       <c r="C21">
-        <v>-228360</v>
+        <v>-887220</v>
       </c>
       <c r="D21">
-        <v>-227760</v>
+        <v>887220</v>
       </c>
       <c r="E21" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="F21" t="str">
-        <v>0.00022329941116698</v>
+        <v>0.000000183049412521</v>
       </c>
       <c r="G21" t="str">
-        <v>2100.81</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>505288</v>
+        <v>473240</v>
       </c>
       <c r="B22" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
       <c r="C22">
-        <v>-229800</v>
+        <v>-887220</v>
       </c>
       <c r="D22">
-        <v>-226440</v>
+        <v>887220</v>
       </c>
       <c r="E22" t="str">
-        <v>0</v>
+        <v>1059244542</v>
       </c>
       <c r="F22" t="str">
-        <v>0</v>
+        <v>0.000000065214949577</v>
       </c>
       <c r="G22" t="str">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>506960</v>
+        <v>473521</v>
       </c>
       <c r="B23" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
       <c r="C23">
-        <v>-229080</v>
+        <v>-887220</v>
       </c>
       <c r="D23">
-        <v>-227040</v>
+        <v>887220</v>
       </c>
       <c r="E23" t="str">
-        <v>0</v>
+        <v>8874241</v>
       </c>
       <c r="F23" t="str">
-        <v>0.002666279950937297</v>
+        <v>0.000000000546364089</v>
       </c>
       <c r="G23" t="str">
-        <v>143.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>505377</v>
+        <v>484374</v>
       </c>
       <c r="B24" t="str">
-        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
+        <v>0x0776b74e2dC3fe4f25FdAf18c0eBB274b574dba8</v>
       </c>
       <c r="C24">
-        <v>-229500</v>
+        <v>-230280</v>
       </c>
       <c r="D24">
-        <v>-226200</v>
+        <v>-228420</v>
       </c>
       <c r="E24" t="str">
-        <v>25808586590156</v>
+        <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>0.000720934452865584</v>
+        <v>0</v>
       </c>
       <c r="G24" t="str">
-        <v>430.47</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>509441</v>
+        <v>488779</v>
       </c>
       <c r="B25" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
       <c r="C25">
-        <v>-230280</v>
+        <v>-229800</v>
       </c>
       <c r="D25">
-        <v>-229440</v>
+        <v>-229620</v>
       </c>
       <c r="E25" t="str">
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>0.002692838655613879</v>
+        <v>0</v>
       </c>
       <c r="G25" t="str">
-        <v>353.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>509538</v>
+        <v>495186</v>
       </c>
       <c r="B26" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
       <c r="C26">
-        <v>-231300</v>
+        <v>-229980</v>
       </c>
       <c r="D26">
-        <v>-228180</v>
+        <v>-229860</v>
       </c>
       <c r="E26" t="str">
-        <v>176725902753455</v>
+        <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>0.003343164078406239</v>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
-        <v>6169.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>510117</v>
+        <v>495386</v>
       </c>
       <c r="B27" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
       <c r="C27">
-        <v>-230700</v>
+        <v>-230160</v>
       </c>
       <c r="D27">
-        <v>-229980</v>
+        <v>-230100</v>
       </c>
       <c r="E27" t="str">
-        <v>13852311417847</v>
+        <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>0.002059015959657614</v>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
-        <v>3550.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>510164</v>
+        <v>504866</v>
       </c>
       <c r="B28" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0xa4fF2Ff7c9dCc78b76Ac381E2d06938B88bd8804</v>
       </c>
       <c r="C28">
-        <v>-231900</v>
+        <v>-887220</v>
       </c>
       <c r="D28">
-        <v>-228060</v>
+        <v>887220</v>
       </c>
       <c r="E28" t="str">
-        <v>50204015704768</v>
+        <v>4549696227828</v>
       </c>
       <c r="F28" t="str">
-        <v>0.000733998705858306</v>
+        <v>0.000280113041253049</v>
       </c>
       <c r="G28" t="str">
-        <v>1432.34</v>
+        <v>222.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>510443</v>
+        <v>505002</v>
       </c>
       <c r="B29" t="str">
-        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C29">
-        <v>-236340</v>
+        <v>-234420</v>
       </c>
       <c r="D29">
-        <v>-227940</v>
+        <v>887220</v>
       </c>
       <c r="E29" t="str">
-        <v>18556086886349</v>
+        <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>0.000292586362906153</v>
+        <v>0.000121980731206302</v>
       </c>
       <c r="G29" t="str">
-        <v>632.97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>511473</v>
+        <v>505288</v>
       </c>
       <c r="B30" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
       <c r="C30">
-        <v>-887220</v>
+        <v>-229800</v>
       </c>
       <c r="D30">
-        <v>-230700</v>
+        <v>-226440</v>
       </c>
       <c r="E30" t="str">
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>0</v>
+        <v>0.0023341489339834</v>
       </c>
       <c r="G30" t="str">
-        <v>0</v>
+        <v>671.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>505002</v>
+        <v>505377</v>
       </c>
       <c r="B31" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
       <c r="C31">
-        <v>-234420</v>
+        <v>-229500</v>
       </c>
       <c r="D31">
-        <v>887220</v>
+        <v>-226200</v>
       </c>
       <c r="E31" t="str">
-        <v>0</v>
+        <v>25808586590156</v>
       </c>
       <c r="F31" t="str">
-        <v>0</v>
+        <v>0.000972434312458434</v>
       </c>
       <c r="G31" t="str">
-        <v>0</v>
+        <v>488.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>511880</v>
+        <v>505521</v>
       </c>
       <c r="B32" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
       <c r="C32">
-        <v>-234420</v>
+        <v>-234660</v>
       </c>
       <c r="D32">
-        <v>-228060</v>
+        <v>-229620</v>
       </c>
       <c r="E32" t="str">
-        <v>26419125153093</v>
+        <v>18992693817103</v>
       </c>
       <c r="F32" t="str">
-        <v>0.000416568201423573</v>
+        <v>0.000270559798178671</v>
       </c>
       <c r="G32" t="str">
-        <v>899.37</v>
+        <v>278.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>511954</v>
+        <v>505745</v>
       </c>
       <c r="B33" t="str">
-        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
       <c r="C33">
-        <v>-231900</v>
+        <v>-233820</v>
       </c>
       <c r="D33">
-        <v>-230220</v>
+        <v>-226920</v>
       </c>
       <c r="E33" t="str">
-        <v>44622976474483</v>
+        <v>2667175614449</v>
       </c>
       <c r="F33" t="str">
-        <v>0.000119328284713097</v>
+        <v>0.000154961323740931</v>
       </c>
       <c r="G33" t="str">
-        <v>120.42</v>
+        <v>113.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>513775</v>
+        <v>506435</v>
       </c>
       <c r="B34" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="C34">
-        <v>-237180</v>
+        <v>-231300</v>
       </c>
       <c r="D34">
-        <v>-223320</v>
+        <v>-230280</v>
       </c>
       <c r="E34" t="str">
-        <v>24308481809563</v>
+        <v>201231094969306</v>
       </c>
       <c r="F34" t="str">
-        <v>0.000334551975600832</v>
+        <v>0.000227245597571951</v>
       </c>
       <c r="G34" t="str">
-        <v>779.51</v>
+        <v>226.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>513925</v>
+        <v>506486</v>
       </c>
       <c r="B35" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
       </c>
       <c r="C35">
-        <v>-230940</v>
+        <v>-887220</v>
       </c>
       <c r="D35">
-        <v>-229920</v>
+        <v>887220</v>
       </c>
       <c r="E35" t="str">
-        <v>415465231370294</v>
+        <v>24868702919482</v>
       </c>
       <c r="F35" t="str">
-        <v>0.000304022293696658</v>
+        <v>0.001304881981404184</v>
       </c>
       <c r="G35" t="str">
-        <v>1972.52</v>
+        <v>1054.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>514034</v>
+        <v>506576</v>
       </c>
       <c r="B36" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C36">
-        <v>-233820</v>
+        <v>-228360</v>
       </c>
       <c r="D36">
-        <v>-230160</v>
+        <v>-227760</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <v>0.000001486173498873</v>
+        <v>0.00022329941116698</v>
       </c>
       <c r="G36" t="str">
-        <v>0</v>
+        <v>2100.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>518316</v>
+        <v>506960</v>
       </c>
       <c r="B37" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
       <c r="C37">
-        <v>-232140</v>
+        <v>-229080</v>
       </c>
       <c r="D37">
-        <v>-229500</v>
+        <v>-227040</v>
       </c>
       <c r="E37" t="str">
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>0.001424880823328034</v>
+        <v>0.002666279950937297</v>
       </c>
       <c r="G37" t="str">
-        <v>713.15</v>
+        <v>143.43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>520816</v>
+        <v>509441</v>
       </c>
       <c r="B38" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C38">
-        <v>-236280</v>
+        <v>-230280</v>
       </c>
       <c r="D38">
-        <v>-222420</v>
+        <v>-229440</v>
       </c>
       <c r="E38" t="str">
-        <v>6453735782746</v>
+        <v>0</v>
       </c>
       <c r="F38" t="str">
-        <v>0.000078331352922114</v>
+        <v>0.002692838655613879</v>
       </c>
       <c r="G38" t="str">
-        <v>102.93</v>
+        <v>353.79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>521906</v>
+        <v>509538</v>
       </c>
       <c r="B39" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
       <c r="C39">
-        <v>-229680</v>
+        <v>-231300</v>
       </c>
       <c r="D39">
-        <v>-229260</v>
+        <v>-228180</v>
       </c>
       <c r="E39" t="str">
-        <v>1291739755077882</v>
+        <v>176725902753455</v>
       </c>
       <c r="F39" t="str">
-        <v>0.010892764228117631</v>
+        <v>0.003343164078406239</v>
       </c>
       <c r="G39" t="str">
-        <v>13097.32</v>
+        <v>6169.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>522797</v>
+        <v>510117</v>
       </c>
       <c r="B40" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C40">
-        <v>-230880</v>
+        <v>-230700</v>
       </c>
       <c r="D40">
-        <v>-227880</v>
+        <v>-229980</v>
       </c>
       <c r="E40" t="str">
-        <v>15587520479023</v>
+        <v>13852311417847</v>
       </c>
       <c r="F40" t="str">
-        <v>0.000167827432375759</v>
+        <v>0.002059015959657614</v>
       </c>
       <c r="G40" t="str">
-        <v>222.31</v>
+        <v>3550.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>524503</v>
+        <v>510164</v>
       </c>
       <c r="B41" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
       <c r="C41">
-        <v>-887220</v>
+        <v>-231900</v>
       </c>
       <c r="D41">
-        <v>887220</v>
+        <v>-228060</v>
       </c>
       <c r="E41" t="str">
-        <v>502375752692</v>
+        <v>50204015704768</v>
       </c>
       <c r="F41" t="str">
-        <v>0.000004843592966566</v>
+        <v>0.000733998705858306</v>
       </c>
       <c r="G41" t="str">
-        <v>6.62</v>
+        <v>1432.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>527536</v>
+        <v>510443</v>
       </c>
       <c r="B42" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
       </c>
       <c r="C42">
-        <v>-230100</v>
+        <v>-236340</v>
       </c>
       <c r="D42">
-        <v>-229440</v>
+        <v>-227940</v>
       </c>
       <c r="E42" t="str">
-        <v>10869407165199</v>
+        <v>18556086886349</v>
       </c>
       <c r="F42" t="str">
-        <v>0.002104207852546897</v>
+        <v>0.000292586362906153</v>
       </c>
       <c r="G42" t="str">
-        <v>3580.6</v>
+        <v>632.97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>532247</v>
+        <v>511473</v>
       </c>
       <c r="B43" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
       <c r="C43">
-        <v>-232380</v>
+        <v>-887220</v>
       </c>
       <c r="D43">
-        <v>-228540</v>
+        <v>-230700</v>
       </c>
       <c r="E43" t="str">
-        <v>48393263282904</v>
+        <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>0.000172329170221939</v>
+        <v>0</v>
       </c>
       <c r="G43" t="str">
-        <v>514.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>534801</v>
+        <v>511880</v>
       </c>
       <c r="B44" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C44">
-        <v>-230160</v>
+        <v>-234420</v>
       </c>
       <c r="D44">
-        <v>-228960</v>
+        <v>-228060</v>
       </c>
       <c r="E44" t="str">
-        <v>5808496973162</v>
+        <v>26419125153093</v>
       </c>
       <c r="F44" t="str">
-        <v>0.00001237890166375</v>
+        <v>0.000416568201423573</v>
       </c>
       <c r="G44" t="str">
-        <v>49.3</v>
+        <v>899.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>534888</v>
+        <v>511954</v>
       </c>
       <c r="B45" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
       </c>
       <c r="C45">
-        <v>-231780</v>
+        <v>-231900</v>
       </c>
       <c r="D45">
-        <v>-227640</v>
+        <v>-230220</v>
       </c>
       <c r="E45" t="str">
-        <v>1751491917620</v>
+        <v>44622976474483</v>
       </c>
       <c r="F45" t="str">
-        <v>0.000003732729191949</v>
+        <v>0.000119328284713097</v>
       </c>
       <c r="G45" t="str">
-        <v>14.86</v>
+        <v>120.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>534960</v>
+        <v>513775</v>
       </c>
       <c r="B46" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
       <c r="C46">
-        <v>-236460</v>
+        <v>-237180</v>
       </c>
       <c r="D46">
-        <v>-222600</v>
+        <v>-223320</v>
       </c>
       <c r="E46" t="str">
-        <v>533920062025</v>
+        <v>24308481809563</v>
       </c>
       <c r="F46" t="str">
-        <v>0.000001137875077606</v>
+        <v>0.000334551975600832</v>
       </c>
       <c r="G46" t="str">
-        <v>4.53</v>
+        <v>779.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>535036</v>
+        <v>513925</v>
       </c>
       <c r="B47" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="C47">
-        <v>-243420</v>
+        <v>-230940</v>
       </c>
       <c r="D47">
-        <v>-223980</v>
+        <v>-229920</v>
       </c>
       <c r="E47" t="str">
-        <v>645825640325</v>
+        <v>415465231370294</v>
       </c>
       <c r="F47" t="str">
-        <v>0.000001376365027037</v>
+        <v>0.000304022293696658</v>
       </c>
       <c r="G47" t="str">
-        <v>5.48</v>
+        <v>1972.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>535083</v>
+        <v>514034</v>
       </c>
       <c r="B48" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
       <c r="C48">
-        <v>-243420</v>
+        <v>-233820</v>
       </c>
       <c r="D48">
-        <v>-222660</v>
+        <v>-230160</v>
       </c>
       <c r="E48" t="str">
-        <v>537839520148</v>
+        <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>0.000001146228114011</v>
+        <v>0.000001486173498873</v>
       </c>
       <c r="G48" t="str">
-        <v>4.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>540374</v>
+        <v>518316</v>
       </c>
       <c r="B49" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
       <c r="C49">
-        <v>-887220</v>
+        <v>-232140</v>
       </c>
       <c r="D49">
-        <v>887220</v>
+        <v>-229500</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>0.00000017871865758</v>
+        <v>0.001424880823328034</v>
       </c>
       <c r="G49" t="str">
-        <v>0.3</v>
+        <v>713.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>549666</v>
+        <v>520816</v>
       </c>
       <c r="B50" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
       <c r="C50">
-        <v>-232200</v>
+        <v>-236280</v>
       </c>
       <c r="D50">
-        <v>-227820</v>
+        <v>-222420</v>
       </c>
       <c r="E50" t="str">
-        <v>150094882599173</v>
+        <v>6453735782746</v>
       </c>
       <c r="F50" t="str">
-        <v>0.000233174151732526</v>
+        <v>0.000078331352922114</v>
       </c>
       <c r="G50" t="str">
-        <v>1061.99</v>
+        <v>102.93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>560972</v>
+        <v>521906</v>
       </c>
       <c r="B51" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C51">
-        <v>-887220</v>
+        <v>-229680</v>
       </c>
       <c r="D51">
-        <v>887220</v>
+        <v>-229260</v>
       </c>
       <c r="E51" t="str">
-        <v>1000313936772</v>
+        <v>1291739755077882</v>
       </c>
       <c r="F51" t="str">
-        <v>0.000000706674113266</v>
+        <v>0.010892764228117631</v>
       </c>
       <c r="G51" t="str">
-        <v>6.87</v>
+        <v>13097.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v>522797</v>
+      </c>
+      <c r="B52" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+      <c r="C52">
+        <v>-230880</v>
+      </c>
+      <c r="D52">
+        <v>-227880</v>
+      </c>
+      <c r="E52" t="str">
+        <v>15587520479023</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0.000167827432375759</v>
+      </c>
+      <c r="G52" t="str">
+        <v>222.31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>524503</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+      <c r="C53">
+        <v>-887220</v>
+      </c>
+      <c r="D53">
+        <v>887220</v>
+      </c>
+      <c r="E53" t="str">
+        <v>502375752692</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.000004843592966566</v>
+      </c>
+      <c r="G53" t="str">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C54">
+        <v>-230100</v>
+      </c>
+      <c r="D54">
+        <v>-229440</v>
+      </c>
+      <c r="E54" t="str">
+        <v>10869407165199</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0.002104207852546897</v>
+      </c>
+      <c r="G54" t="str">
+        <v>3580.6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+      <c r="C55">
+        <v>-232380</v>
+      </c>
+      <c r="D55">
+        <v>-228540</v>
+      </c>
+      <c r="E55" t="str">
+        <v>48393263282904</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0.000172329170221939</v>
+      </c>
+      <c r="G55" t="str">
+        <v>514.61</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>534801</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+      <c r="C56">
+        <v>-230160</v>
+      </c>
+      <c r="D56">
+        <v>-228960</v>
+      </c>
+      <c r="E56" t="str">
+        <v>5808496973162</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0.00001237890166375</v>
+      </c>
+      <c r="G56" t="str">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>534888</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+      <c r="C57">
+        <v>-231780</v>
+      </c>
+      <c r="D57">
+        <v>-227640</v>
+      </c>
+      <c r="E57" t="str">
+        <v>1751491917620</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0.000003732729191949</v>
+      </c>
+      <c r="G57" t="str">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>534960</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+      <c r="C58">
+        <v>-236460</v>
+      </c>
+      <c r="D58">
+        <v>-222600</v>
+      </c>
+      <c r="E58" t="str">
+        <v>533920062025</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0.000001137875077606</v>
+      </c>
+      <c r="G58" t="str">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>535036</v>
+      </c>
+      <c r="B59" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+      <c r="C59">
+        <v>-243420</v>
+      </c>
+      <c r="D59">
+        <v>-223980</v>
+      </c>
+      <c r="E59" t="str">
+        <v>645825640325</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0.000001376365027037</v>
+      </c>
+      <c r="G59" t="str">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>535083</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+      <c r="C60">
+        <v>-243420</v>
+      </c>
+      <c r="D60">
+        <v>-222660</v>
+      </c>
+      <c r="E60" t="str">
+        <v>537839520148</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0.000001146228114011</v>
+      </c>
+      <c r="G60" t="str">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>540374</v>
+      </c>
+      <c r="B61" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+      <c r="C61">
+        <v>-887220</v>
+      </c>
+      <c r="D61">
+        <v>887220</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>0.00000017871865758</v>
+      </c>
+      <c r="G61" t="str">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>549666</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+      <c r="C62">
+        <v>-232200</v>
+      </c>
+      <c r="D62">
+        <v>-227820</v>
+      </c>
+      <c r="E62" t="str">
+        <v>150094882599173</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0.000233174151732526</v>
+      </c>
+      <c r="G62" t="str">
+        <v>1061.99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+      <c r="C63">
+        <v>-887220</v>
+      </c>
+      <c r="D63">
+        <v>887220</v>
+      </c>
+      <c r="E63" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="F63" t="str">
+        <v>0.000000706674113266</v>
+      </c>
+      <c r="G63" t="str">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
         <v>564602</v>
       </c>
-      <c r="B52" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
-      </c>
-      <c r="C52">
+      <c r="B64" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C64">
         <v>-229320</v>
       </c>
-      <c r="D52">
+      <c r="D64">
         <v>-229140</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E64" t="str">
         <v>1953989705109304</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F64" t="str">
         <v>0.000035465144269567</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G64" t="str">
         <v>39.71</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G64"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +2004,7 @@
         <v>96439</v>
       </c>
       <c r="B2" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C2" t="str">
         <v>70340928853837</v>
@@ -1756,7 +2032,7 @@
         <v>98826</v>
       </c>
       <c r="B4" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C4" t="str">
         <v>2799647519312</v>
@@ -1784,7 +2060,7 @@
         <v>98935</v>
       </c>
       <c r="B6" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C6" t="str">
         <v>72822838586832</v>
@@ -1812,7 +2088,7 @@
         <v>127754</v>
       </c>
       <c r="B8" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C8" t="str">
         <v>555542429181</v>
@@ -1840,7 +2116,7 @@
         <v>131715</v>
       </c>
       <c r="B10" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C10" t="str">
         <v>132321488837</v>
@@ -1868,7 +2144,7 @@
         <v>137236</v>
       </c>
       <c r="B12" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C12" t="str">
         <v>193608237918218</v>
@@ -1896,7 +2172,7 @@
         <v>139335</v>
       </c>
       <c r="B14" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C14" t="str">
         <v>82678018534207</v>
@@ -1924,7 +2200,7 @@
         <v>152591</v>
       </c>
       <c r="B16" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C16" t="str">
         <v>190323510700816</v>
@@ -1952,7 +2228,7 @@
         <v>169804</v>
       </c>
       <c r="B18" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C18" t="str">
         <v>1935228148</v>
@@ -1980,7 +2256,7 @@
         <v>188661</v>
       </c>
       <c r="B20" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C20" t="str">
         <v>3954172914015</v>
@@ -2008,7 +2284,7 @@
         <v>216238</v>
       </c>
       <c r="B22" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C22" t="str">
         <v>23063374227770</v>
@@ -2036,7 +2312,7 @@
         <v>227084</v>
       </c>
       <c r="B24" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C24" t="str">
         <v>6992043339226</v>
@@ -2064,7 +2340,7 @@
         <v>235971</v>
       </c>
       <c r="B26" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C26" t="str">
         <v>14878824778138</v>
@@ -2092,7 +2368,7 @@
         <v>323328</v>
       </c>
       <c r="B28" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C28" t="str">
         <v>152036287345</v>
@@ -2120,7 +2396,7 @@
         <v>380398</v>
       </c>
       <c r="B30" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C30" t="str">
         <v>632075719414</v>
@@ -2148,7 +2424,7 @@
         <v>397056</v>
       </c>
       <c r="B32" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C32" t="str">
         <v>552820604842</v>
@@ -2176,7 +2452,7 @@
         <v>473512</v>
       </c>
       <c r="B34" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C34" t="str">
         <v>2134767548</v>
@@ -2204,7 +2480,7 @@
         <v>499487</v>
       </c>
       <c r="B36" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C36" t="str">
         <v>810223718752750</v>
@@ -2229,10 +2505,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>506486</v>
+        <v>467685</v>
       </c>
       <c r="B38" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C38" t="str">
         <v>0</v>
@@ -2243,52 +2519,52 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>506486</v>
+        <v>467685</v>
       </c>
       <c r="B39" t="str">
-        <v>37756101</v>
+        <v>37468623</v>
       </c>
       <c r="C39" t="str">
-        <v>24868702919482</v>
+        <v>1059244542</v>
       </c>
       <c r="D39" t="str">
-        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>506486</v>
+        <v>467685</v>
       </c>
       <c r="B40" t="str">
-        <v>37756458</v>
+        <v>37492690</v>
       </c>
       <c r="C40" t="str">
-        <v>24868702919482</v>
+        <v>1059244542</v>
       </c>
       <c r="D40" t="str">
-        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>506486</v>
+        <v>467685</v>
       </c>
       <c r="B41" t="str">
         <v>38058125</v>
       </c>
       <c r="C41" t="str">
-        <v>24868702919482</v>
+        <v>1059244542</v>
       </c>
       <c r="D41" t="str">
-        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B42" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C42" t="str">
         <v>0</v>
@@ -2299,808 +2575,808 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B43" t="str">
-        <v>37756882</v>
+        <v>37468826</v>
       </c>
       <c r="C43" t="str">
-        <v>778453807575385</v>
+        <v>2973154045</v>
       </c>
       <c r="D43" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B44" t="str">
-        <v>37756898</v>
+        <v>37513491</v>
       </c>
       <c r="C44" t="str">
-        <v>778453807575385</v>
+        <v>2973154045</v>
       </c>
       <c r="D44" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B45" t="str">
-        <v>37760532</v>
+        <v>37514801</v>
       </c>
       <c r="C45" t="str">
-        <v>778453807575385</v>
+        <v>2973154045</v>
       </c>
       <c r="D45" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B46" t="str">
-        <v>37760569</v>
+        <v>37520692</v>
       </c>
       <c r="C46" t="str">
-        <v>811816607759927</v>
+        <v>2973154045</v>
       </c>
       <c r="D46" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B47" t="str">
-        <v>37778196</v>
+        <v>37520764</v>
       </c>
       <c r="C47" t="str">
-        <v>811816607759927</v>
+        <v>2973154045</v>
       </c>
       <c r="D47" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B48" t="str">
-        <v>37778196</v>
+        <v>37521609</v>
       </c>
       <c r="C48" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D48" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>506576</v>
+        <v>467710</v>
       </c>
       <c r="B49" t="str">
-        <v>38058125</v>
+        <v>37521682</v>
       </c>
       <c r="C49" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D49" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>505288</v>
+        <v>467710</v>
       </c>
       <c r="B50" t="str">
-        <v>37755726</v>
+        <v>37521956</v>
       </c>
       <c r="C50" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D50" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>505288</v>
+        <v>467710</v>
       </c>
       <c r="B51" t="str">
-        <v>37759811</v>
+        <v>37521970</v>
       </c>
       <c r="C51" t="str">
-        <v>248752577117172</v>
+        <v>2973154045</v>
       </c>
       <c r="D51" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>505288</v>
+        <v>467710</v>
       </c>
       <c r="B52" t="str">
-        <v>37769622</v>
+        <v>37526455</v>
       </c>
       <c r="C52" t="str">
-        <v>248752577117172</v>
+        <v>2973154045</v>
       </c>
       <c r="D52" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>505288</v>
+        <v>467710</v>
       </c>
       <c r="B53" t="str">
-        <v>37769622</v>
+        <v>37685495</v>
       </c>
       <c r="C53" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D53" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>505288</v>
+        <v>467710</v>
       </c>
       <c r="B54" t="str">
-        <v>38058125</v>
+        <v>37685508</v>
       </c>
       <c r="C54" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D54" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B55" t="str">
-        <v>37755726</v>
+        <v>37685899</v>
       </c>
       <c r="C55" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D55" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B56" t="str">
-        <v>37760748</v>
+        <v>37685910</v>
       </c>
       <c r="C56" t="str">
-        <v>175074562364063</v>
+        <v>2973154045</v>
       </c>
       <c r="D56" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B57" t="str">
-        <v>37760766</v>
+        <v>37685942</v>
       </c>
       <c r="C57" t="str">
-        <v>175074562364063</v>
+        <v>2973154045</v>
       </c>
       <c r="D57" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B58" t="str">
-        <v>37779830</v>
+        <v>37685988</v>
       </c>
       <c r="C58" t="str">
-        <v>175074562364063</v>
+        <v>2973154045</v>
       </c>
       <c r="D58" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B59" t="str">
-        <v>37779847</v>
+        <v>37686986</v>
       </c>
       <c r="C59" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D59" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>506960</v>
+        <v>467710</v>
       </c>
       <c r="B60" t="str">
-        <v>38058125</v>
+        <v>37689724</v>
       </c>
       <c r="C60" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D60" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>505377</v>
+        <v>467710</v>
       </c>
       <c r="B61" t="str">
-        <v>37755726</v>
+        <v>37689739</v>
       </c>
       <c r="C61" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D61" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>505377</v>
+        <v>467710</v>
       </c>
       <c r="B62" t="str">
-        <v>37769479</v>
+        <v>37690838</v>
       </c>
       <c r="C62" t="str">
-        <v>25808586590156</v>
+        <v>2973154045</v>
       </c>
       <c r="D62" t="str">
-        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>505377</v>
+        <v>467710</v>
       </c>
       <c r="B63" t="str">
-        <v>37782099</v>
+        <v>37695551</v>
       </c>
       <c r="C63" t="str">
-        <v>25808586590156</v>
+        <v>2973154045</v>
       </c>
       <c r="D63" t="str">
-        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>505377</v>
+        <v>467710</v>
       </c>
       <c r="B64" t="str">
-        <v>38058125</v>
+        <v>37702315</v>
       </c>
       <c r="C64" t="str">
-        <v>25808586590156</v>
+        <v>2973154045</v>
       </c>
       <c r="D64" t="str">
-        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>509441</v>
+        <v>467710</v>
       </c>
       <c r="B65" t="str">
-        <v>37755726</v>
+        <v>37774928</v>
       </c>
       <c r="C65" t="str">
-        <v>0</v>
+        <v>2973154045</v>
       </c>
       <c r="D65" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>509441</v>
+        <v>467710</v>
       </c>
       <c r="B66" t="str">
-        <v>37779299</v>
+        <v>38058125</v>
       </c>
       <c r="C66" t="str">
-        <v>137260498451669</v>
+        <v>2973154045</v>
       </c>
       <c r="D66" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>509441</v>
+        <v>473240</v>
       </c>
       <c r="B67" t="str">
-        <v>37779415</v>
+        <v>37463764</v>
       </c>
       <c r="C67" t="str">
-        <v>137260498451669</v>
+        <v>0</v>
       </c>
       <c r="D67" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>509441</v>
+        <v>473240</v>
       </c>
       <c r="B68" t="str">
-        <v>37779601</v>
+        <v>37508030</v>
       </c>
       <c r="C68" t="str">
-        <v>212776505333367</v>
+        <v>1059244542</v>
       </c>
       <c r="D68" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>509441</v>
+        <v>473240</v>
       </c>
       <c r="B69" t="str">
-        <v>37779958</v>
+        <v>37509434</v>
       </c>
       <c r="C69" t="str">
-        <v>408891111738076</v>
+        <v>1059244542</v>
       </c>
       <c r="D69" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>509441</v>
+        <v>473240</v>
       </c>
       <c r="B70" t="str">
-        <v>37781129</v>
+        <v>38058125</v>
       </c>
       <c r="C70" t="str">
-        <v>479089437057677</v>
+        <v>1059244542</v>
       </c>
       <c r="D70" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B71" t="str">
-        <v>37782634</v>
+        <v>37463764</v>
       </c>
       <c r="C71" t="str">
-        <v>119772359264420</v>
+        <v>0</v>
       </c>
       <c r="D71" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B72" t="str">
-        <v>37797191</v>
+        <v>37512478</v>
       </c>
       <c r="C72" t="str">
-        <v>119772359264420</v>
+        <v>8874241</v>
       </c>
       <c r="D72" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B73" t="str">
-        <v>37797205</v>
+        <v>37521625</v>
       </c>
       <c r="C73" t="str">
-        <v>119772359264420</v>
+        <v>8874241</v>
       </c>
       <c r="D73" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B74" t="str">
-        <v>37797205</v>
+        <v>37523748</v>
       </c>
       <c r="C74" t="str">
-        <v>0</v>
+        <v>8874241</v>
       </c>
       <c r="D74" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B75" t="str">
-        <v>37873964</v>
+        <v>37685866</v>
       </c>
       <c r="C75" t="str">
-        <v>27193215323996</v>
+        <v>8874241</v>
       </c>
       <c r="D75" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B76" t="str">
-        <v>37874370</v>
+        <v>37685878</v>
       </c>
       <c r="C76" t="str">
-        <v>40001594103979</v>
+        <v>8874241</v>
       </c>
       <c r="D76" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B77" t="str">
-        <v>37874506</v>
+        <v>37685930</v>
       </c>
       <c r="C77" t="str">
-        <v>92284662905709</v>
+        <v>8874241</v>
       </c>
       <c r="D77" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B78" t="str">
-        <v>37875557</v>
+        <v>37685974</v>
       </c>
       <c r="C78" t="str">
-        <v>0</v>
+        <v>8874241</v>
       </c>
       <c r="D78" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>509441</v>
+        <v>473521</v>
       </c>
       <c r="B79" t="str">
-        <v>38058125</v>
+        <v>37686002</v>
       </c>
       <c r="C79" t="str">
-        <v>0</v>
+        <v>8874241</v>
       </c>
       <c r="D79" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>509538</v>
+        <v>473521</v>
       </c>
       <c r="B80" t="str">
-        <v>37755726</v>
+        <v>37702666</v>
       </c>
       <c r="C80" t="str">
-        <v>0</v>
+        <v>8874241</v>
       </c>
       <c r="D80" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>509538</v>
+        <v>473521</v>
       </c>
       <c r="B81" t="str">
-        <v>37780122</v>
+        <v>38058125</v>
       </c>
       <c r="C81" t="str">
-        <v>176725902753455</v>
+        <v>8874241</v>
       </c>
       <c r="D81" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>509538</v>
+        <v>484374</v>
       </c>
       <c r="B82" t="str">
-        <v>37780227</v>
+        <v>37463764</v>
       </c>
       <c r="C82" t="str">
-        <v>176725902753455</v>
+        <v>0</v>
       </c>
       <c r="D82" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>509538</v>
+        <v>484374</v>
       </c>
       <c r="B83" t="str">
-        <v>38058125</v>
+        <v>37586548</v>
       </c>
       <c r="C83" t="str">
-        <v>176725902753455</v>
+        <v>6503482795330</v>
       </c>
       <c r="D83" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0x0776b74e2dC3fe4f25FdAf18c0eBB274b574dba8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>510117</v>
+        <v>484374</v>
       </c>
       <c r="B84" t="str">
-        <v>37755726</v>
+        <v>37716955</v>
       </c>
       <c r="C84" t="str">
         <v>0</v>
       </c>
       <c r="D84" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x0776b74e2dC3fe4f25FdAf18c0eBB274b574dba8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>510117</v>
+        <v>484374</v>
       </c>
       <c r="B85" t="str">
-        <v>37782682</v>
+        <v>38058125</v>
       </c>
       <c r="C85" t="str">
-        <v>122419823504589</v>
+        <v>0</v>
       </c>
       <c r="D85" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0776b74e2dC3fe4f25FdAf18c0eBB274b574dba8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B86" t="str">
-        <v>37783632</v>
+        <v>37463764</v>
       </c>
       <c r="C86" t="str">
-        <v>122419823504589</v>
+        <v>0</v>
       </c>
       <c r="D86" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B87" t="str">
-        <v>37783645</v>
+        <v>37623686</v>
       </c>
       <c r="C87" t="str">
-        <v>292402132491116</v>
+        <v>1080482215398</v>
       </c>
       <c r="D87" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B88" t="str">
-        <v>37783943</v>
+        <v>37706119</v>
       </c>
       <c r="C88" t="str">
-        <v>394190107349805</v>
+        <v>1080482215398</v>
       </c>
       <c r="D88" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B89" t="str">
-        <v>37797127</v>
+        <v>37706213</v>
       </c>
       <c r="C89" t="str">
-        <v>394190107349805</v>
+        <v>1080482215398</v>
       </c>
       <c r="D89" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B90" t="str">
-        <v>37797228</v>
+        <v>37706243</v>
       </c>
       <c r="C90" t="str">
-        <v>442603341708410</v>
+        <v>1080482215398</v>
       </c>
       <c r="D90" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B91" t="str">
-        <v>37797468</v>
+        <v>37754818</v>
       </c>
       <c r="C91" t="str">
-        <v>486576735126357</v>
+        <v>1080482215398</v>
       </c>
       <c r="D91" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B92" t="str">
-        <v>37797564</v>
+        <v>37755000</v>
       </c>
       <c r="C92" t="str">
-        <v>514081286534743</v>
+        <v>0</v>
       </c>
       <c r="D92" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>510117</v>
+        <v>488779</v>
       </c>
       <c r="B93" t="str">
-        <v>37799974</v>
+        <v>38058125</v>
       </c>
       <c r="C93" t="str">
-        <v>548904356984479</v>
+        <v>0</v>
       </c>
       <c r="D93" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B94" t="str">
-        <v>37803390</v>
+        <v>37463764</v>
       </c>
       <c r="C94" t="str">
-        <v>554092456713843</v>
+        <v>0</v>
       </c>
       <c r="D94" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B95" t="str">
-        <v>37839705</v>
+        <v>37661744</v>
       </c>
       <c r="C95" t="str">
-        <v>27704622835693</v>
+        <v>98269967082</v>
       </c>
       <c r="D95" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B96" t="str">
-        <v>37875501</v>
+        <v>37706309</v>
       </c>
       <c r="C96" t="str">
-        <v>27704622835693</v>
+        <v>98269967082</v>
       </c>
       <c r="D96" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B97" t="str">
-        <v>37875520</v>
+        <v>37754900</v>
       </c>
       <c r="C97" t="str">
-        <v>27704622835693</v>
+        <v>98269967082</v>
       </c>
       <c r="D97" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B98" t="str">
-        <v>38041444</v>
+        <v>37755056</v>
       </c>
       <c r="C98" t="str">
-        <v>13852311417847</v>
+        <v>0</v>
       </c>
       <c r="D98" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>510117</v>
+        <v>495186</v>
       </c>
       <c r="B99" t="str">
         <v>38058125</v>
       </c>
       <c r="C99" t="str">
-        <v>13852311417847</v>
+        <v>0</v>
       </c>
       <c r="D99" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B100" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C100" t="str">
         <v>0</v>
@@ -3111,584 +3387,584 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B101" t="str">
-        <v>37783035</v>
+        <v>37662226</v>
       </c>
       <c r="C101" t="str">
-        <v>23283989047399</v>
+        <v>231717027395</v>
       </c>
       <c r="D101" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B102" t="str">
-        <v>37783137</v>
+        <v>37706334</v>
       </c>
       <c r="C102" t="str">
-        <v>36377336433124</v>
+        <v>231717027395</v>
       </c>
       <c r="D102" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B103" t="str">
-        <v>37783171</v>
+        <v>37754913</v>
       </c>
       <c r="C103" t="str">
-        <v>36377336433124</v>
+        <v>231717027395</v>
       </c>
       <c r="D103" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B104" t="str">
-        <v>37877797</v>
+        <v>37755082</v>
       </c>
       <c r="C104" t="str">
-        <v>36377336433124</v>
+        <v>0</v>
       </c>
       <c r="D104" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>510164</v>
+        <v>495386</v>
       </c>
       <c r="B105" t="str">
-        <v>37878026</v>
+        <v>38058125</v>
       </c>
       <c r="C105" t="str">
-        <v>50204015704768</v>
+        <v>0</v>
       </c>
       <c r="D105" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x5490f0c24a452dFB62Bb8414A3E7aeAc1ecd19C9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>510164</v>
+        <v>504866</v>
       </c>
       <c r="B106" t="str">
-        <v>38058125</v>
+        <v>37463764</v>
       </c>
       <c r="C106" t="str">
-        <v>50204015704768</v>
+        <v>0</v>
       </c>
       <c r="D106" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>510443</v>
+        <v>504866</v>
       </c>
       <c r="B107" t="str">
-        <v>37755726</v>
+        <v>37742341</v>
       </c>
       <c r="C107" t="str">
-        <v>0</v>
+        <v>4549696227828</v>
       </c>
       <c r="D107" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xa4fF2Ff7c9dCc78b76Ac381E2d06938B88bd8804</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>510443</v>
+        <v>504866</v>
       </c>
       <c r="B108" t="str">
-        <v>37784222</v>
+        <v>37742932</v>
       </c>
       <c r="C108" t="str">
-        <v>18556086886349</v>
+        <v>4549696227828</v>
       </c>
       <c r="D108" t="str">
-        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
+        <v>0xa4fF2Ff7c9dCc78b76Ac381E2d06938B88bd8804</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>510443</v>
+        <v>504866</v>
       </c>
       <c r="B109" t="str">
-        <v>37784253</v>
+        <v>38058125</v>
       </c>
       <c r="C109" t="str">
-        <v>18556086886349</v>
+        <v>4549696227828</v>
       </c>
       <c r="D109" t="str">
-        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
+        <v>0xa4fF2Ff7c9dCc78b76Ac381E2d06938B88bd8804</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>510443</v>
+        <v>505002</v>
       </c>
       <c r="B110" t="str">
-        <v>38058125</v>
+        <v>37463764</v>
       </c>
       <c r="C110" t="str">
-        <v>18556086886349</v>
+        <v>0</v>
       </c>
       <c r="D110" t="str">
-        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>511473</v>
+        <v>505002</v>
       </c>
       <c r="B111" t="str">
-        <v>37755726</v>
+        <v>37743892</v>
       </c>
       <c r="C111" t="str">
-        <v>0</v>
+        <v>2873813764272</v>
       </c>
       <c r="D111" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>511473</v>
+        <v>505002</v>
       </c>
       <c r="B112" t="str">
-        <v>37787370</v>
+        <v>37743924</v>
       </c>
       <c r="C112" t="str">
-        <v>4091444547719</v>
+        <v>2873813764272</v>
       </c>
       <c r="D112" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>511473</v>
+        <v>505002</v>
       </c>
       <c r="B113" t="str">
-        <v>37787396</v>
+        <v>37788716</v>
       </c>
       <c r="C113" t="str">
-        <v>4091444547719</v>
+        <v>2873813764272</v>
       </c>
       <c r="D113" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>511473</v>
+        <v>505002</v>
       </c>
       <c r="B114" t="str">
-        <v>37798430</v>
+        <v>37788716</v>
       </c>
       <c r="C114" t="str">
-        <v>4091444547719</v>
+        <v>0</v>
       </c>
       <c r="D114" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>511473</v>
+        <v>505002</v>
       </c>
       <c r="B115" t="str">
-        <v>37798430</v>
+        <v>38058125</v>
       </c>
       <c r="C115" t="str">
         <v>0</v>
       </c>
       <c r="D115" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>511473</v>
+        <v>505288</v>
       </c>
       <c r="B116" t="str">
-        <v>38058125</v>
+        <v>37463764</v>
       </c>
       <c r="C116" t="str">
         <v>0</v>
       </c>
       <c r="D116" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>505002</v>
+        <v>505288</v>
       </c>
       <c r="B117" t="str">
-        <v>37755726</v>
+        <v>37745701</v>
       </c>
       <c r="C117" t="str">
-        <v>0</v>
+        <v>248752577117172</v>
       </c>
       <c r="D117" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>505002</v>
+        <v>505288</v>
       </c>
       <c r="B118" t="str">
-        <v>37788716</v>
+        <v>37745786</v>
       </c>
       <c r="C118" t="str">
-        <v>0</v>
+        <v>248752577117172</v>
       </c>
       <c r="D118" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>505002</v>
+        <v>505288</v>
       </c>
       <c r="B119" t="str">
-        <v>38058125</v>
+        <v>37759811</v>
       </c>
       <c r="C119" t="str">
-        <v>0</v>
+        <v>248752577117172</v>
       </c>
       <c r="D119" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>511880</v>
+        <v>505288</v>
       </c>
       <c r="B120" t="str">
-        <v>37755726</v>
+        <v>37769622</v>
       </c>
       <c r="C120" t="str">
-        <v>0</v>
+        <v>248752577117172</v>
       </c>
       <c r="D120" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>511880</v>
+        <v>505288</v>
       </c>
       <c r="B121" t="str">
-        <v>37788803</v>
+        <v>37769622</v>
       </c>
       <c r="C121" t="str">
-        <v>26419125153093</v>
+        <v>0</v>
       </c>
       <c r="D121" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>511880</v>
+        <v>505288</v>
       </c>
       <c r="B122" t="str">
-        <v>37788823</v>
+        <v>38058125</v>
       </c>
       <c r="C122" t="str">
-        <v>26419125153093</v>
+        <v>0</v>
       </c>
       <c r="D122" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>511880</v>
+        <v>505377</v>
       </c>
       <c r="B123" t="str">
-        <v>38058125</v>
+        <v>37463764</v>
       </c>
       <c r="C123" t="str">
-        <v>26419125153093</v>
+        <v>0</v>
       </c>
       <c r="D123" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>511954</v>
+        <v>505377</v>
       </c>
       <c r="B124" t="str">
-        <v>37755726</v>
+        <v>37746747</v>
       </c>
       <c r="C124" t="str">
-        <v>0</v>
+        <v>21682418727250</v>
       </c>
       <c r="D124" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>511954</v>
+        <v>505377</v>
       </c>
       <c r="B125" t="str">
-        <v>37789106</v>
+        <v>37746821</v>
       </c>
       <c r="C125" t="str">
-        <v>44622976474483</v>
+        <v>21682418727250</v>
       </c>
       <c r="D125" t="str">
-        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>511954</v>
+        <v>505377</v>
       </c>
       <c r="B126" t="str">
-        <v>37789131</v>
+        <v>37769479</v>
       </c>
       <c r="C126" t="str">
-        <v>44622976474483</v>
+        <v>25808586590156</v>
       </c>
       <c r="D126" t="str">
-        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>511954</v>
+        <v>505377</v>
       </c>
       <c r="B127" t="str">
-        <v>38058125</v>
+        <v>37782099</v>
       </c>
       <c r="C127" t="str">
-        <v>44622976474483</v>
+        <v>25808586590156</v>
       </c>
       <c r="D127" t="str">
-        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>513775</v>
+        <v>505377</v>
       </c>
       <c r="B128" t="str">
-        <v>37755726</v>
+        <v>38058125</v>
       </c>
       <c r="C128" t="str">
-        <v>0</v>
+        <v>25808586590156</v>
       </c>
       <c r="D128" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>513775</v>
+        <v>505521</v>
       </c>
       <c r="B129" t="str">
-        <v>37796390</v>
+        <v>37463764</v>
       </c>
       <c r="C129" t="str">
-        <v>24308481809563</v>
+        <v>0</v>
       </c>
       <c r="D129" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>513775</v>
+        <v>505521</v>
       </c>
       <c r="B130" t="str">
-        <v>37796432</v>
+        <v>37747784</v>
       </c>
       <c r="C130" t="str">
-        <v>24308481809563</v>
+        <v>18992693817103</v>
       </c>
       <c r="D130" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>513775</v>
+        <v>505521</v>
       </c>
       <c r="B131" t="str">
-        <v>38058125</v>
+        <v>37747810</v>
       </c>
       <c r="C131" t="str">
-        <v>24308481809563</v>
+        <v>18992693817103</v>
       </c>
       <c r="D131" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>513925</v>
+        <v>505521</v>
       </c>
       <c r="B132" t="str">
-        <v>37755726</v>
+        <v>38058125</v>
       </c>
       <c r="C132" t="str">
-        <v>0</v>
+        <v>18992693817103</v>
       </c>
       <c r="D132" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>513925</v>
+        <v>505745</v>
       </c>
       <c r="B133" t="str">
-        <v>37797926</v>
+        <v>37463764</v>
       </c>
       <c r="C133" t="str">
-        <v>415465231370294</v>
+        <v>0</v>
       </c>
       <c r="D133" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>513925</v>
+        <v>505745</v>
       </c>
       <c r="B134" t="str">
-        <v>37798002</v>
+        <v>37749820</v>
       </c>
       <c r="C134" t="str">
-        <v>415465231370294</v>
+        <v>2615466185020</v>
       </c>
       <c r="D134" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>513925</v>
+        <v>505745</v>
       </c>
       <c r="B135" t="str">
-        <v>38058125</v>
+        <v>37749917</v>
       </c>
       <c r="C135" t="str">
-        <v>415465231370294</v>
+        <v>2615466185020</v>
       </c>
       <c r="D135" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>514034</v>
+        <v>505745</v>
       </c>
       <c r="B136" t="str">
-        <v>37755726</v>
+        <v>37749973</v>
       </c>
       <c r="C136" t="str">
-        <v>0</v>
+        <v>2667175614449</v>
       </c>
       <c r="D136" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>514034</v>
+        <v>505745</v>
       </c>
       <c r="B137" t="str">
-        <v>37798647</v>
+        <v>38058125</v>
       </c>
       <c r="C137" t="str">
-        <v>17968224485835</v>
+        <v>2667175614449</v>
       </c>
       <c r="D137" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>514034</v>
+        <v>506435</v>
       </c>
       <c r="B138" t="str">
-        <v>37798676</v>
+        <v>37463764</v>
       </c>
       <c r="C138" t="str">
-        <v>17968224485835</v>
+        <v>0</v>
       </c>
       <c r="D138" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>514034</v>
+        <v>506435</v>
       </c>
       <c r="B139" t="str">
-        <v>37828166</v>
+        <v>37755620</v>
       </c>
       <c r="C139" t="str">
-        <v>17968224485835</v>
+        <v>201231094969306</v>
       </c>
       <c r="D139" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>514034</v>
+        <v>506435</v>
       </c>
       <c r="B140" t="str">
-        <v>37828166</v>
+        <v>37755683</v>
       </c>
       <c r="C140" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="D140" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>514034</v>
+        <v>506435</v>
       </c>
       <c r="B141" t="str">
         <v>38058125</v>
       </c>
       <c r="C141" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="D141" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>518316</v>
+        <v>506486</v>
       </c>
       <c r="B142" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C142" t="str">
         <v>0</v>
@@ -3699,153 +3975,153 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>518316</v>
+        <v>506486</v>
       </c>
       <c r="B143" t="str">
-        <v>37828376</v>
+        <v>37756101</v>
       </c>
       <c r="C143" t="str">
-        <v>31106613966316</v>
+        <v>24868702919482</v>
       </c>
       <c r="D143" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>518316</v>
+        <v>506486</v>
       </c>
       <c r="B144" t="str">
-        <v>37828401</v>
+        <v>37756458</v>
       </c>
       <c r="C144" t="str">
-        <v>31106613966316</v>
+        <v>24868702919482</v>
       </c>
       <c r="D144" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>518316</v>
+        <v>506486</v>
       </c>
       <c r="B145" t="str">
-        <v>37835867</v>
+        <v>38058125</v>
       </c>
       <c r="C145" t="str">
-        <v>31106613966316</v>
+        <v>24868702919482</v>
       </c>
       <c r="D145" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>518316</v>
+        <v>506576</v>
       </c>
       <c r="B146" t="str">
-        <v>37835867</v>
+        <v>37463764</v>
       </c>
       <c r="C146" t="str">
         <v>0</v>
       </c>
       <c r="D146" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>518316</v>
+        <v>506576</v>
       </c>
       <c r="B147" t="str">
-        <v>38058125</v>
+        <v>37756882</v>
       </c>
       <c r="C147" t="str">
-        <v>0</v>
+        <v>778453807575385</v>
       </c>
       <c r="D147" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>520816</v>
+        <v>506576</v>
       </c>
       <c r="B148" t="str">
-        <v>37755726</v>
+        <v>37756898</v>
       </c>
       <c r="C148" t="str">
-        <v>0</v>
+        <v>778453807575385</v>
       </c>
       <c r="D148" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>520816</v>
+        <v>506576</v>
       </c>
       <c r="B149" t="str">
-        <v>37836079</v>
+        <v>37760532</v>
       </c>
       <c r="C149" t="str">
-        <v>6453735782746</v>
+        <v>778453807575385</v>
       </c>
       <c r="D149" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>520816</v>
+        <v>506576</v>
       </c>
       <c r="B150" t="str">
-        <v>37836116</v>
+        <v>37760569</v>
       </c>
       <c r="C150" t="str">
-        <v>6453735782746</v>
+        <v>811816607759927</v>
       </c>
       <c r="D150" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>520816</v>
+        <v>506576</v>
       </c>
       <c r="B151" t="str">
-        <v>38058125</v>
+        <v>37778196</v>
       </c>
       <c r="C151" t="str">
-        <v>6453735782746</v>
+        <v>811816607759927</v>
       </c>
       <c r="D151" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>521906</v>
+        <v>506576</v>
       </c>
       <c r="B152" t="str">
-        <v>37755726</v>
+        <v>37778196</v>
       </c>
       <c r="C152" t="str">
         <v>0</v>
       </c>
       <c r="D152" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>521906</v>
+        <v>506576</v>
       </c>
       <c r="B153" t="str">
-        <v>37840010</v>
+        <v>38058125</v>
       </c>
       <c r="C153" t="str">
-        <v>823316746725752</v>
+        <v>0</v>
       </c>
       <c r="D153" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3853,111 +4129,111 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B154" t="str">
-        <v>37840037</v>
+        <v>37463764</v>
       </c>
       <c r="C154" t="str">
-        <v>823316746725752</v>
+        <v>0</v>
       </c>
       <c r="D154" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B155" t="str">
-        <v>37869859</v>
+        <v>37760748</v>
       </c>
       <c r="C155" t="str">
-        <v>823316746725752</v>
+        <v>175074562364063</v>
       </c>
       <c r="D155" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B156" t="str">
-        <v>37869868</v>
+        <v>37760766</v>
       </c>
       <c r="C156" t="str">
-        <v>834211692574695</v>
+        <v>175074562364063</v>
       </c>
       <c r="D156" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B157" t="str">
-        <v>37873281</v>
+        <v>37779830</v>
       </c>
       <c r="C157" t="str">
-        <v>869464216172338</v>
+        <v>175074562364063</v>
       </c>
       <c r="D157" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B158" t="str">
-        <v>37873349</v>
+        <v>37779847</v>
       </c>
       <c r="C158" t="str">
-        <v>966629225823438</v>
+        <v>0</v>
       </c>
       <c r="D158" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>521906</v>
+        <v>506960</v>
       </c>
       <c r="B159" t="str">
-        <v>37873438</v>
+        <v>38058125</v>
       </c>
       <c r="C159" t="str">
-        <v>1119862280419965</v>
+        <v>0</v>
       </c>
       <c r="D159" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B160" t="str">
-        <v>37874268</v>
+        <v>37463764</v>
       </c>
       <c r="C160" t="str">
-        <v>1211196579242619</v>
+        <v>0</v>
       </c>
       <c r="D160" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B161" t="str">
-        <v>37908309</v>
+        <v>37779299</v>
       </c>
       <c r="C161" t="str">
-        <v>1282907668622166</v>
+        <v>137260498451669</v>
       </c>
       <c r="D161" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3965,13 +4241,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B162" t="str">
-        <v>37909914</v>
+        <v>37779415</v>
       </c>
       <c r="C162" t="str">
-        <v>1288862998346525</v>
+        <v>137260498451669</v>
       </c>
       <c r="D162" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3979,13 +4255,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B163" t="str">
-        <v>37926834</v>
+        <v>37779601</v>
       </c>
       <c r="C163" t="str">
-        <v>1288862998346525</v>
+        <v>212776505333367</v>
       </c>
       <c r="D163" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3993,13 +4269,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B164" t="str">
-        <v>38012216</v>
+        <v>37779958</v>
       </c>
       <c r="C164" t="str">
-        <v>1288862998346525</v>
+        <v>408891111738076</v>
       </c>
       <c r="D164" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4007,13 +4283,13 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B165" t="str">
-        <v>38012252</v>
+        <v>37781129</v>
       </c>
       <c r="C165" t="str">
-        <v>1291739755077882</v>
+        <v>479089437057677</v>
       </c>
       <c r="D165" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4021,13 +4297,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>521906</v>
+        <v>509441</v>
       </c>
       <c r="B166" t="str">
-        <v>38058125</v>
+        <v>37782634</v>
       </c>
       <c r="C166" t="str">
-        <v>1291739755077882</v>
+        <v>119772359264420</v>
       </c>
       <c r="D166" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4035,122 +4311,122 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>522797</v>
+        <v>509441</v>
       </c>
       <c r="B167" t="str">
-        <v>37755726</v>
+        <v>37797191</v>
       </c>
       <c r="C167" t="str">
-        <v>0</v>
+        <v>119772359264420</v>
       </c>
       <c r="D167" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>522797</v>
+        <v>509441</v>
       </c>
       <c r="B168" t="str">
-        <v>37847586</v>
+        <v>37797205</v>
       </c>
       <c r="C168" t="str">
-        <v>15587520479023</v>
+        <v>119772359264420</v>
       </c>
       <c r="D168" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>522797</v>
+        <v>509441</v>
       </c>
       <c r="B169" t="str">
-        <v>37847613</v>
+        <v>37797205</v>
       </c>
       <c r="C169" t="str">
-        <v>15587520479023</v>
+        <v>0</v>
       </c>
       <c r="D169" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>522797</v>
+        <v>509441</v>
       </c>
       <c r="B170" t="str">
-        <v>38058125</v>
+        <v>37873964</v>
       </c>
       <c r="C170" t="str">
-        <v>15587520479023</v>
+        <v>27193215323996</v>
       </c>
       <c r="D170" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>524503</v>
+        <v>509441</v>
       </c>
       <c r="B171" t="str">
-        <v>37755726</v>
+        <v>37874370</v>
       </c>
       <c r="C171" t="str">
-        <v>0</v>
+        <v>40001594103979</v>
       </c>
       <c r="D171" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>524503</v>
+        <v>509441</v>
       </c>
       <c r="B172" t="str">
-        <v>37861347</v>
+        <v>37874506</v>
       </c>
       <c r="C172" t="str">
-        <v>502375752692</v>
+        <v>92284662905709</v>
       </c>
       <c r="D172" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>524503</v>
+        <v>509441</v>
       </c>
       <c r="B173" t="str">
-        <v>37861456</v>
+        <v>37875557</v>
       </c>
       <c r="C173" t="str">
-        <v>502375752692</v>
+        <v>0</v>
       </c>
       <c r="D173" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>524503</v>
+        <v>509441</v>
       </c>
       <c r="B174" t="str">
         <v>38058125</v>
       </c>
       <c r="C174" t="str">
-        <v>502375752692</v>
+        <v>0</v>
       </c>
       <c r="D174" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>527536</v>
+        <v>509538</v>
       </c>
       <c r="B175" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -4161,69 +4437,69 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>527536</v>
+        <v>509538</v>
       </c>
       <c r="B176" t="str">
-        <v>37875607</v>
+        <v>37780122</v>
       </c>
       <c r="C176" t="str">
-        <v>168138471327280</v>
+        <v>176725902753455</v>
       </c>
       <c r="D176" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>527536</v>
+        <v>509538</v>
       </c>
       <c r="B177" t="str">
-        <v>37875622</v>
+        <v>37780227</v>
       </c>
       <c r="C177" t="str">
-        <v>168138471327280</v>
+        <v>176725902753455</v>
       </c>
       <c r="D177" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>527536</v>
+        <v>509538</v>
       </c>
       <c r="B178" t="str">
-        <v>37875728</v>
+        <v>38058125</v>
       </c>
       <c r="C178" t="str">
-        <v>208937407916243</v>
+        <v>176725902753455</v>
       </c>
       <c r="D178" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B179" t="str">
-        <v>37875845</v>
+        <v>37463764</v>
       </c>
       <c r="C179" t="str">
-        <v>280761256982334</v>
+        <v>0</v>
       </c>
       <c r="D179" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B180" t="str">
-        <v>37875959</v>
+        <v>37782682</v>
       </c>
       <c r="C180" t="str">
-        <v>323827860735750</v>
+        <v>122419823504589</v>
       </c>
       <c r="D180" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4231,13 +4507,13 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B181" t="str">
-        <v>37876133</v>
+        <v>37783632</v>
       </c>
       <c r="C181" t="str">
-        <v>412851716954063</v>
+        <v>122419823504589</v>
       </c>
       <c r="D181" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4245,13 +4521,13 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B182" t="str">
-        <v>37893642</v>
+        <v>37783645</v>
       </c>
       <c r="C182" t="str">
-        <v>470152022465443</v>
+        <v>292402132491116</v>
       </c>
       <c r="D182" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4259,13 +4535,13 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B183" t="str">
-        <v>37893815</v>
+        <v>37783943</v>
       </c>
       <c r="C183" t="str">
-        <v>490946668040724</v>
+        <v>394190107349805</v>
       </c>
       <c r="D183" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4273,13 +4549,13 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B184" t="str">
-        <v>37923752</v>
+        <v>37797127</v>
       </c>
       <c r="C184" t="str">
-        <v>506100198863590</v>
+        <v>394190107349805</v>
       </c>
       <c r="D184" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4287,13 +4563,13 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B185" t="str">
-        <v>37925062</v>
+        <v>37797228</v>
       </c>
       <c r="C185" t="str">
-        <v>528533098216452</v>
+        <v>442603341708410</v>
       </c>
       <c r="D185" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4301,13 +4577,13 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B186" t="str">
-        <v>37925226</v>
+        <v>37797468</v>
       </c>
       <c r="C186" t="str">
-        <v>543192522197081</v>
+        <v>486576735126357</v>
       </c>
       <c r="D186" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4315,13 +4591,13 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B187" t="str">
-        <v>37926846</v>
+        <v>37797564</v>
       </c>
       <c r="C187" t="str">
-        <v>543470358259907</v>
+        <v>514081286534743</v>
       </c>
       <c r="D187" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4329,13 +4605,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B188" t="str">
-        <v>38012227</v>
+        <v>37799974</v>
       </c>
       <c r="C188" t="str">
-        <v>543470358259907</v>
+        <v>548904356984479</v>
       </c>
       <c r="D188" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4343,13 +4619,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B189" t="str">
-        <v>38035172</v>
+        <v>37803390</v>
       </c>
       <c r="C189" t="str">
-        <v>10869407165199</v>
+        <v>554092456713843</v>
       </c>
       <c r="D189" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4357,13 +4633,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>527536</v>
+        <v>510117</v>
       </c>
       <c r="B190" t="str">
-        <v>38058125</v>
+        <v>37839705</v>
       </c>
       <c r="C190" t="str">
-        <v>10869407165199</v>
+        <v>27704622835693</v>
       </c>
       <c r="D190" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -4371,304 +4647,304 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>532247</v>
+        <v>510117</v>
       </c>
       <c r="B191" t="str">
-        <v>37755726</v>
+        <v>37875501</v>
       </c>
       <c r="C191" t="str">
-        <v>0</v>
+        <v>27704622835693</v>
       </c>
       <c r="D191" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>532247</v>
+        <v>510117</v>
       </c>
       <c r="B192" t="str">
-        <v>37902570</v>
+        <v>37875520</v>
       </c>
       <c r="C192" t="str">
-        <v>3685256375423</v>
+        <v>27704622835693</v>
       </c>
       <c r="D192" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>532247</v>
+        <v>510117</v>
       </c>
       <c r="B193" t="str">
-        <v>37902599</v>
+        <v>38041444</v>
       </c>
       <c r="C193" t="str">
-        <v>3685256375423</v>
+        <v>13852311417847</v>
       </c>
       <c r="D193" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>532247</v>
+        <v>510117</v>
       </c>
       <c r="B194" t="str">
-        <v>37902703</v>
+        <v>38058125</v>
       </c>
       <c r="C194" t="str">
-        <v>7264677970752</v>
+        <v>13852311417847</v>
       </c>
       <c r="D194" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B195" t="str">
-        <v>37902776</v>
+        <v>37463764</v>
       </c>
       <c r="C195" t="str">
-        <v>10859163548947</v>
+        <v>0</v>
       </c>
       <c r="D195" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B196" t="str">
-        <v>37902837</v>
+        <v>37783035</v>
       </c>
       <c r="C196" t="str">
-        <v>14457966683637</v>
+        <v>23283989047399</v>
       </c>
       <c r="D196" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B197" t="str">
-        <v>37902891</v>
+        <v>37783137</v>
       </c>
       <c r="C197" t="str">
-        <v>18060237140864</v>
+        <v>36377336433124</v>
       </c>
       <c r="D197" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B198" t="str">
-        <v>37902944</v>
+        <v>37783171</v>
       </c>
       <c r="C198" t="str">
-        <v>21667387603830</v>
+        <v>36377336433124</v>
       </c>
       <c r="D198" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B199" t="str">
-        <v>37903002</v>
+        <v>37877797</v>
       </c>
       <c r="C199" t="str">
-        <v>25279334101311</v>
+        <v>36377336433124</v>
       </c>
       <c r="D199" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B200" t="str">
-        <v>37903055</v>
+        <v>37878026</v>
       </c>
       <c r="C200" t="str">
-        <v>28894715499695</v>
+        <v>50204015704768</v>
       </c>
       <c r="D200" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>532247</v>
+        <v>510164</v>
       </c>
       <c r="B201" t="str">
-        <v>37903102</v>
+        <v>38058125</v>
       </c>
       <c r="C201" t="str">
-        <v>32514227577124</v>
+        <v>50204015704768</v>
       </c>
       <c r="D201" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>532247</v>
+        <v>510443</v>
       </c>
       <c r="B202" t="str">
-        <v>37903152</v>
+        <v>37463764</v>
       </c>
       <c r="C202" t="str">
-        <v>37857469129676</v>
+        <v>0</v>
       </c>
       <c r="D202" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>532247</v>
+        <v>510443</v>
       </c>
       <c r="B203" t="str">
-        <v>37903207</v>
+        <v>37784222</v>
       </c>
       <c r="C203" t="str">
-        <v>41479910448823</v>
+        <v>18556086886349</v>
       </c>
       <c r="D203" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>532247</v>
+        <v>510443</v>
       </c>
       <c r="B204" t="str">
-        <v>37903266</v>
+        <v>37784253</v>
       </c>
       <c r="C204" t="str">
-        <v>43910590042556</v>
+        <v>18556086886349</v>
       </c>
       <c r="D204" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>532247</v>
+        <v>510443</v>
       </c>
       <c r="B205" t="str">
-        <v>37903336</v>
+        <v>38058125</v>
       </c>
       <c r="C205" t="str">
-        <v>47107523414407</v>
+        <v>18556086886349</v>
       </c>
       <c r="D205" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>532247</v>
+        <v>511473</v>
       </c>
       <c r="B206" t="str">
-        <v>37903402</v>
+        <v>37463764</v>
       </c>
       <c r="C206" t="str">
-        <v>48393263282904</v>
+        <v>0</v>
       </c>
       <c r="D206" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>532247</v>
+        <v>511473</v>
       </c>
       <c r="B207" t="str">
-        <v>38058125</v>
+        <v>37787370</v>
       </c>
       <c r="C207" t="str">
-        <v>48393263282904</v>
+        <v>4091444547719</v>
       </c>
       <c r="D207" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>534801</v>
+        <v>511473</v>
       </c>
       <c r="B208" t="str">
-        <v>37755726</v>
+        <v>37787396</v>
       </c>
       <c r="C208" t="str">
-        <v>0</v>
+        <v>4091444547719</v>
       </c>
       <c r="D208" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>534801</v>
+        <v>511473</v>
       </c>
       <c r="B209" t="str">
-        <v>37914542</v>
+        <v>37798430</v>
       </c>
       <c r="C209" t="str">
-        <v>5808496973162</v>
+        <v>4091444547719</v>
       </c>
       <c r="D209" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>534801</v>
+        <v>511473</v>
       </c>
       <c r="B210" t="str">
-        <v>37914610</v>
+        <v>37798430</v>
       </c>
       <c r="C210" t="str">
-        <v>5808496973162</v>
+        <v>0</v>
       </c>
       <c r="D210" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>534801</v>
+        <v>511473</v>
       </c>
       <c r="B211" t="str">
         <v>38058125</v>
       </c>
       <c r="C211" t="str">
-        <v>5808496973162</v>
+        <v>0</v>
       </c>
       <c r="D211" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>534888</v>
+        <v>511880</v>
       </c>
       <c r="B212" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -4679,52 +4955,52 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>534888</v>
+        <v>511880</v>
       </c>
       <c r="B213" t="str">
-        <v>37914837</v>
+        <v>37788803</v>
       </c>
       <c r="C213" t="str">
-        <v>1751491917620</v>
+        <v>26419125153093</v>
       </c>
       <c r="D213" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>534888</v>
+        <v>511880</v>
       </c>
       <c r="B214" t="str">
-        <v>37914922</v>
+        <v>37788823</v>
       </c>
       <c r="C214" t="str">
-        <v>1751491917620</v>
+        <v>26419125153093</v>
       </c>
       <c r="D214" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>534888</v>
+        <v>511880</v>
       </c>
       <c r="B215" t="str">
         <v>38058125</v>
       </c>
       <c r="C215" t="str">
-        <v>1751491917620</v>
+        <v>26419125153093</v>
       </c>
       <c r="D215" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>534960</v>
+        <v>511954</v>
       </c>
       <c r="B216" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -4735,52 +5011,52 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>534960</v>
+        <v>511954</v>
       </c>
       <c r="B217" t="str">
-        <v>37915135</v>
+        <v>37789106</v>
       </c>
       <c r="C217" t="str">
-        <v>533920062025</v>
+        <v>44622976474483</v>
       </c>
       <c r="D217" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>534960</v>
+        <v>511954</v>
       </c>
       <c r="B218" t="str">
-        <v>37915189</v>
+        <v>37789131</v>
       </c>
       <c r="C218" t="str">
-        <v>533920062025</v>
+        <v>44622976474483</v>
       </c>
       <c r="D218" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>534960</v>
+        <v>511954</v>
       </c>
       <c r="B219" t="str">
         <v>38058125</v>
       </c>
       <c r="C219" t="str">
-        <v>533920062025</v>
+        <v>44622976474483</v>
       </c>
       <c r="D219" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>535036</v>
+        <v>513775</v>
       </c>
       <c r="B220" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -4791,52 +5067,52 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>535036</v>
+        <v>513775</v>
       </c>
       <c r="B221" t="str">
-        <v>37915380</v>
+        <v>37796390</v>
       </c>
       <c r="C221" t="str">
-        <v>645825640325</v>
+        <v>24308481809563</v>
       </c>
       <c r="D221" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>535036</v>
+        <v>513775</v>
       </c>
       <c r="B222" t="str">
-        <v>37915430</v>
+        <v>37796432</v>
       </c>
       <c r="C222" t="str">
-        <v>645825640325</v>
+        <v>24308481809563</v>
       </c>
       <c r="D222" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>535036</v>
+        <v>513775</v>
       </c>
       <c r="B223" t="str">
         <v>38058125</v>
       </c>
       <c r="C223" t="str">
-        <v>645825640325</v>
+        <v>24308481809563</v>
       </c>
       <c r="D223" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>535083</v>
+        <v>513925</v>
       </c>
       <c r="B224" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -4847,52 +5123,52 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>535083</v>
+        <v>513925</v>
       </c>
       <c r="B225" t="str">
-        <v>37915522</v>
+        <v>37797926</v>
       </c>
       <c r="C225" t="str">
-        <v>537839520148</v>
+        <v>415465231370294</v>
       </c>
       <c r="D225" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>535083</v>
+        <v>513925</v>
       </c>
       <c r="B226" t="str">
-        <v>37915579</v>
+        <v>37798002</v>
       </c>
       <c r="C226" t="str">
-        <v>537839520148</v>
+        <v>415465231370294</v>
       </c>
       <c r="D226" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>535083</v>
+        <v>513925</v>
       </c>
       <c r="B227" t="str">
         <v>38058125</v>
       </c>
       <c r="C227" t="str">
-        <v>537839520148</v>
+        <v>415465231370294</v>
       </c>
       <c r="D227" t="str">
-        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>540374</v>
+        <v>514034</v>
       </c>
       <c r="B228" t="str">
-        <v>37755726</v>
+        <v>37463764</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -4903,252 +5179,1540 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>540374</v>
+        <v>514034</v>
       </c>
       <c r="B229" t="str">
-        <v>37943501</v>
+        <v>37798647</v>
       </c>
       <c r="C229" t="str">
-        <v>187979672781</v>
+        <v>17968224485835</v>
       </c>
       <c r="D229" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>540374</v>
+        <v>514034</v>
       </c>
       <c r="B230" t="str">
-        <v>38019802</v>
+        <v>37798676</v>
       </c>
       <c r="C230" t="str">
-        <v>0</v>
+        <v>17968224485835</v>
       </c>
       <c r="D230" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>540374</v>
+        <v>514034</v>
       </c>
       <c r="B231" t="str">
-        <v>38058125</v>
+        <v>37828166</v>
       </c>
       <c r="C231" t="str">
-        <v>0</v>
+        <v>17968224485835</v>
       </c>
       <c r="D231" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>549666</v>
+        <v>514034</v>
       </c>
       <c r="B232" t="str">
-        <v>37755726</v>
+        <v>37828166</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
       </c>
       <c r="D232" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>549666</v>
+        <v>514034</v>
       </c>
       <c r="B233" t="str">
-        <v>37976339</v>
+        <v>38058125</v>
       </c>
       <c r="C233" t="str">
-        <v>150094882599173</v>
+        <v>0</v>
       </c>
       <c r="D233" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>549666</v>
+        <v>518316</v>
       </c>
       <c r="B234" t="str">
-        <v>37976363</v>
+        <v>37463764</v>
       </c>
       <c r="C234" t="str">
-        <v>150094882599173</v>
+        <v>0</v>
       </c>
       <c r="D234" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>549666</v>
+        <v>518316</v>
       </c>
       <c r="B235" t="str">
-        <v>38058125</v>
+        <v>37828376</v>
       </c>
       <c r="C235" t="str">
-        <v>150094882599173</v>
+        <v>31106613966316</v>
       </c>
       <c r="D235" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>560972</v>
+        <v>518316</v>
       </c>
       <c r="B236" t="str">
-        <v>37755726</v>
+        <v>37828401</v>
       </c>
       <c r="C236" t="str">
-        <v>0</v>
+        <v>31106613966316</v>
       </c>
       <c r="D236" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>560972</v>
+        <v>518316</v>
       </c>
       <c r="B237" t="str">
-        <v>38019915</v>
+        <v>37835867</v>
       </c>
       <c r="C237" t="str">
-        <v>1000313936772</v>
+        <v>31106613966316</v>
       </c>
       <c r="D237" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>560972</v>
+        <v>518316</v>
       </c>
       <c r="B238" t="str">
-        <v>38019946</v>
+        <v>37835867</v>
       </c>
       <c r="C238" t="str">
-        <v>1000313936772</v>
+        <v>0</v>
       </c>
       <c r="D238" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>560972</v>
+        <v>518316</v>
       </c>
       <c r="B239" t="str">
-        <v>38020011</v>
+        <v>38058125</v>
       </c>
       <c r="C239" t="str">
-        <v>1000313936772</v>
+        <v>0</v>
       </c>
       <c r="D239" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>560972</v>
+        <v>520816</v>
       </c>
       <c r="B240" t="str">
-        <v>38020059</v>
+        <v>37463764</v>
       </c>
       <c r="C240" t="str">
-        <v>1000313936772</v>
+        <v>0</v>
       </c>
       <c r="D240" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>560972</v>
+        <v>520816</v>
       </c>
       <c r="B241" t="str">
-        <v>38058125</v>
+        <v>37836079</v>
       </c>
       <c r="C241" t="str">
-        <v>1000313936772</v>
+        <v>6453735782746</v>
       </c>
       <c r="D241" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>564602</v>
+        <v>520816</v>
       </c>
       <c r="B242" t="str">
-        <v>37755726</v>
+        <v>37836116</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>6453735782746</v>
       </c>
       <c r="D242" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>564602</v>
+        <v>520816</v>
       </c>
       <c r="B243" t="str">
-        <v>38035334</v>
+        <v>38058125</v>
       </c>
       <c r="C243" t="str">
-        <v>1901569103189603</v>
+        <v>6453735782746</v>
       </c>
       <c r="D243" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>564602</v>
+        <v>521906</v>
       </c>
       <c r="B244" t="str">
-        <v>38041459</v>
+        <v>37463764</v>
       </c>
       <c r="C244" t="str">
-        <v>1953989705109304</v>
+        <v>0</v>
       </c>
       <c r="D244" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B245" t="str">
+        <v>37840010</v>
+      </c>
+      <c r="C245" t="str">
+        <v>823316746725752</v>
+      </c>
+      <c r="D245" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B246" t="str">
+        <v>37840037</v>
+      </c>
+      <c r="C246" t="str">
+        <v>823316746725752</v>
+      </c>
+      <c r="D246" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B247" t="str">
+        <v>37869859</v>
+      </c>
+      <c r="C247" t="str">
+        <v>823316746725752</v>
+      </c>
+      <c r="D247" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B248" t="str">
+        <v>37869868</v>
+      </c>
+      <c r="C248" t="str">
+        <v>834211692574695</v>
+      </c>
+      <c r="D248" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B249" t="str">
+        <v>37873281</v>
+      </c>
+      <c r="C249" t="str">
+        <v>869464216172338</v>
+      </c>
+      <c r="D249" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B250" t="str">
+        <v>37873349</v>
+      </c>
+      <c r="C250" t="str">
+        <v>966629225823438</v>
+      </c>
+      <c r="D250" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B251" t="str">
+        <v>37873438</v>
+      </c>
+      <c r="C251" t="str">
+        <v>1119862280419965</v>
+      </c>
+      <c r="D251" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B252" t="str">
+        <v>37874268</v>
+      </c>
+      <c r="C252" t="str">
+        <v>1211196579242619</v>
+      </c>
+      <c r="D252" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B253" t="str">
+        <v>37908309</v>
+      </c>
+      <c r="C253" t="str">
+        <v>1282907668622166</v>
+      </c>
+      <c r="D253" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B254" t="str">
+        <v>37909914</v>
+      </c>
+      <c r="C254" t="str">
+        <v>1288862998346525</v>
+      </c>
+      <c r="D254" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B255" t="str">
+        <v>37926834</v>
+      </c>
+      <c r="C255" t="str">
+        <v>1288862998346525</v>
+      </c>
+      <c r="D255" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B256" t="str">
+        <v>38012216</v>
+      </c>
+      <c r="C256" t="str">
+        <v>1288862998346525</v>
+      </c>
+      <c r="D256" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B257" t="str">
+        <v>38012252</v>
+      </c>
+      <c r="C257" t="str">
+        <v>1291739755077882</v>
+      </c>
+      <c r="D257" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>521906</v>
+      </c>
+      <c r="B258" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C258" t="str">
+        <v>1291739755077882</v>
+      </c>
+      <c r="D258" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>522797</v>
+      </c>
+      <c r="B259" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C259" t="str">
+        <v>0</v>
+      </c>
+      <c r="D259" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>522797</v>
+      </c>
+      <c r="B260" t="str">
+        <v>37847586</v>
+      </c>
+      <c r="C260" t="str">
+        <v>15587520479023</v>
+      </c>
+      <c r="D260" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>522797</v>
+      </c>
+      <c r="B261" t="str">
+        <v>37847613</v>
+      </c>
+      <c r="C261" t="str">
+        <v>15587520479023</v>
+      </c>
+      <c r="D261" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>522797</v>
+      </c>
+      <c r="B262" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C262" t="str">
+        <v>15587520479023</v>
+      </c>
+      <c r="D262" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>524503</v>
+      </c>
+      <c r="B263" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C263" t="str">
+        <v>0</v>
+      </c>
+      <c r="D263" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>524503</v>
+      </c>
+      <c r="B264" t="str">
+        <v>37861347</v>
+      </c>
+      <c r="C264" t="str">
+        <v>502375752692</v>
+      </c>
+      <c r="D264" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>524503</v>
+      </c>
+      <c r="B265" t="str">
+        <v>37861456</v>
+      </c>
+      <c r="C265" t="str">
+        <v>502375752692</v>
+      </c>
+      <c r="D265" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>524503</v>
+      </c>
+      <c r="B266" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C266" t="str">
+        <v>502375752692</v>
+      </c>
+      <c r="D266" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B267" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C267" t="str">
+        <v>0</v>
+      </c>
+      <c r="D267" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B268" t="str">
+        <v>37875607</v>
+      </c>
+      <c r="C268" t="str">
+        <v>168138471327280</v>
+      </c>
+      <c r="D268" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B269" t="str">
+        <v>37875622</v>
+      </c>
+      <c r="C269" t="str">
+        <v>168138471327280</v>
+      </c>
+      <c r="D269" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B270" t="str">
+        <v>37875728</v>
+      </c>
+      <c r="C270" t="str">
+        <v>208937407916243</v>
+      </c>
+      <c r="D270" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B271" t="str">
+        <v>37875845</v>
+      </c>
+      <c r="C271" t="str">
+        <v>280761256982334</v>
+      </c>
+      <c r="D271" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B272" t="str">
+        <v>37875959</v>
+      </c>
+      <c r="C272" t="str">
+        <v>323827860735750</v>
+      </c>
+      <c r="D272" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B273" t="str">
+        <v>37876133</v>
+      </c>
+      <c r="C273" t="str">
+        <v>412851716954063</v>
+      </c>
+      <c r="D273" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B274" t="str">
+        <v>37893642</v>
+      </c>
+      <c r="C274" t="str">
+        <v>470152022465443</v>
+      </c>
+      <c r="D274" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B275" t="str">
+        <v>37893815</v>
+      </c>
+      <c r="C275" t="str">
+        <v>490946668040724</v>
+      </c>
+      <c r="D275" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B276" t="str">
+        <v>37923752</v>
+      </c>
+      <c r="C276" t="str">
+        <v>506100198863590</v>
+      </c>
+      <c r="D276" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B277" t="str">
+        <v>37925062</v>
+      </c>
+      <c r="C277" t="str">
+        <v>528533098216452</v>
+      </c>
+      <c r="D277" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B278" t="str">
+        <v>37925226</v>
+      </c>
+      <c r="C278" t="str">
+        <v>543192522197081</v>
+      </c>
+      <c r="D278" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B279" t="str">
+        <v>37926846</v>
+      </c>
+      <c r="C279" t="str">
+        <v>543470358259907</v>
+      </c>
+      <c r="D279" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B280" t="str">
+        <v>38012227</v>
+      </c>
+      <c r="C280" t="str">
+        <v>543470358259907</v>
+      </c>
+      <c r="D280" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B281" t="str">
+        <v>38035172</v>
+      </c>
+      <c r="C281" t="str">
+        <v>10869407165199</v>
+      </c>
+      <c r="D281" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>527536</v>
+      </c>
+      <c r="B282" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C282" t="str">
+        <v>10869407165199</v>
+      </c>
+      <c r="D282" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B283" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C283" t="str">
+        <v>0</v>
+      </c>
+      <c r="D283" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B284" t="str">
+        <v>37902570</v>
+      </c>
+      <c r="C284" t="str">
+        <v>3685256375423</v>
+      </c>
+      <c r="D284" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B285" t="str">
+        <v>37902599</v>
+      </c>
+      <c r="C285" t="str">
+        <v>3685256375423</v>
+      </c>
+      <c r="D285" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B286" t="str">
+        <v>37902703</v>
+      </c>
+      <c r="C286" t="str">
+        <v>7264677970752</v>
+      </c>
+      <c r="D286" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B287" t="str">
+        <v>37902776</v>
+      </c>
+      <c r="C287" t="str">
+        <v>10859163548947</v>
+      </c>
+      <c r="D287" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B288" t="str">
+        <v>37902837</v>
+      </c>
+      <c r="C288" t="str">
+        <v>14457966683637</v>
+      </c>
+      <c r="D288" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B289" t="str">
+        <v>37902891</v>
+      </c>
+      <c r="C289" t="str">
+        <v>18060237140864</v>
+      </c>
+      <c r="D289" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B290" t="str">
+        <v>37902944</v>
+      </c>
+      <c r="C290" t="str">
+        <v>21667387603830</v>
+      </c>
+      <c r="D290" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B291" t="str">
+        <v>37903002</v>
+      </c>
+      <c r="C291" t="str">
+        <v>25279334101311</v>
+      </c>
+      <c r="D291" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B292" t="str">
+        <v>37903055</v>
+      </c>
+      <c r="C292" t="str">
+        <v>28894715499695</v>
+      </c>
+      <c r="D292" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B293" t="str">
+        <v>37903102</v>
+      </c>
+      <c r="C293" t="str">
+        <v>32514227577124</v>
+      </c>
+      <c r="D293" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B294" t="str">
+        <v>37903152</v>
+      </c>
+      <c r="C294" t="str">
+        <v>37857469129676</v>
+      </c>
+      <c r="D294" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B295" t="str">
+        <v>37903207</v>
+      </c>
+      <c r="C295" t="str">
+        <v>41479910448823</v>
+      </c>
+      <c r="D295" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B296" t="str">
+        <v>37903266</v>
+      </c>
+      <c r="C296" t="str">
+        <v>43910590042556</v>
+      </c>
+      <c r="D296" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B297" t="str">
+        <v>37903336</v>
+      </c>
+      <c r="C297" t="str">
+        <v>47107523414407</v>
+      </c>
+      <c r="D297" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B298" t="str">
+        <v>37903402</v>
+      </c>
+      <c r="C298" t="str">
+        <v>48393263282904</v>
+      </c>
+      <c r="D298" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>532247</v>
+      </c>
+      <c r="B299" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C299" t="str">
+        <v>48393263282904</v>
+      </c>
+      <c r="D299" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>534801</v>
+      </c>
+      <c r="B300" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C300" t="str">
+        <v>0</v>
+      </c>
+      <c r="D300" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>534801</v>
+      </c>
+      <c r="B301" t="str">
+        <v>37914542</v>
+      </c>
+      <c r="C301" t="str">
+        <v>5808496973162</v>
+      </c>
+      <c r="D301" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>534801</v>
+      </c>
+      <c r="B302" t="str">
+        <v>37914610</v>
+      </c>
+      <c r="C302" t="str">
+        <v>5808496973162</v>
+      </c>
+      <c r="D302" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>534801</v>
+      </c>
+      <c r="B303" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C303" t="str">
+        <v>5808496973162</v>
+      </c>
+      <c r="D303" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>534888</v>
+      </c>
+      <c r="B304" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C304" t="str">
+        <v>0</v>
+      </c>
+      <c r="D304" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>534888</v>
+      </c>
+      <c r="B305" t="str">
+        <v>37914837</v>
+      </c>
+      <c r="C305" t="str">
+        <v>1751491917620</v>
+      </c>
+      <c r="D305" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>534888</v>
+      </c>
+      <c r="B306" t="str">
+        <v>37914922</v>
+      </c>
+      <c r="C306" t="str">
+        <v>1751491917620</v>
+      </c>
+      <c r="D306" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>534888</v>
+      </c>
+      <c r="B307" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C307" t="str">
+        <v>1751491917620</v>
+      </c>
+      <c r="D307" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>534960</v>
+      </c>
+      <c r="B308" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C308" t="str">
+        <v>0</v>
+      </c>
+      <c r="D308" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>534960</v>
+      </c>
+      <c r="B309" t="str">
+        <v>37915135</v>
+      </c>
+      <c r="C309" t="str">
+        <v>533920062025</v>
+      </c>
+      <c r="D309" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>534960</v>
+      </c>
+      <c r="B310" t="str">
+        <v>37915189</v>
+      </c>
+      <c r="C310" t="str">
+        <v>533920062025</v>
+      </c>
+      <c r="D310" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>534960</v>
+      </c>
+      <c r="B311" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C311" t="str">
+        <v>533920062025</v>
+      </c>
+      <c r="D311" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>535036</v>
+      </c>
+      <c r="B312" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C312" t="str">
+        <v>0</v>
+      </c>
+      <c r="D312" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>535036</v>
+      </c>
+      <c r="B313" t="str">
+        <v>37915380</v>
+      </c>
+      <c r="C313" t="str">
+        <v>645825640325</v>
+      </c>
+      <c r="D313" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>535036</v>
+      </c>
+      <c r="B314" t="str">
+        <v>37915430</v>
+      </c>
+      <c r="C314" t="str">
+        <v>645825640325</v>
+      </c>
+      <c r="D314" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>535036</v>
+      </c>
+      <c r="B315" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C315" t="str">
+        <v>645825640325</v>
+      </c>
+      <c r="D315" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>535083</v>
+      </c>
+      <c r="B316" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C316" t="str">
+        <v>0</v>
+      </c>
+      <c r="D316" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>535083</v>
+      </c>
+      <c r="B317" t="str">
+        <v>37915522</v>
+      </c>
+      <c r="C317" t="str">
+        <v>537839520148</v>
+      </c>
+      <c r="D317" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>535083</v>
+      </c>
+      <c r="B318" t="str">
+        <v>37915579</v>
+      </c>
+      <c r="C318" t="str">
+        <v>537839520148</v>
+      </c>
+      <c r="D318" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>535083</v>
+      </c>
+      <c r="B319" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C319" t="str">
+        <v>537839520148</v>
+      </c>
+      <c r="D319" t="str">
+        <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>540374</v>
+      </c>
+      <c r="B320" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C320" t="str">
+        <v>0</v>
+      </c>
+      <c r="D320" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>540374</v>
+      </c>
+      <c r="B321" t="str">
+        <v>37943501</v>
+      </c>
+      <c r="C321" t="str">
+        <v>187979672781</v>
+      </c>
+      <c r="D321" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>540374</v>
+      </c>
+      <c r="B322" t="str">
+        <v>38019802</v>
+      </c>
+      <c r="C322" t="str">
+        <v>0</v>
+      </c>
+      <c r="D322" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>540374</v>
+      </c>
+      <c r="B323" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C323" t="str">
+        <v>0</v>
+      </c>
+      <c r="D323" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>549666</v>
+      </c>
+      <c r="B324" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C324" t="str">
+        <v>0</v>
+      </c>
+      <c r="D324" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>549666</v>
+      </c>
+      <c r="B325" t="str">
+        <v>37976339</v>
+      </c>
+      <c r="C325" t="str">
+        <v>150094882599173</v>
+      </c>
+      <c r="D325" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>549666</v>
+      </c>
+      <c r="B326" t="str">
+        <v>37976363</v>
+      </c>
+      <c r="C326" t="str">
+        <v>150094882599173</v>
+      </c>
+      <c r="D326" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>549666</v>
+      </c>
+      <c r="B327" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C327" t="str">
+        <v>150094882599173</v>
+      </c>
+      <c r="D327" t="str">
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B328" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C328" t="str">
+        <v>0</v>
+      </c>
+      <c r="D328" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B329" t="str">
+        <v>38019915</v>
+      </c>
+      <c r="C329" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="D329" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B330" t="str">
+        <v>38019946</v>
+      </c>
+      <c r="C330" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="D330" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B331" t="str">
+        <v>38020011</v>
+      </c>
+      <c r="C331" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="D331" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B332" t="str">
+        <v>38020059</v>
+      </c>
+      <c r="C332" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="D332" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>560972</v>
+      </c>
+      <c r="B333" t="str">
+        <v>38058125</v>
+      </c>
+      <c r="C333" t="str">
+        <v>1000313936772</v>
+      </c>
+      <c r="D333" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
         <v>564602</v>
       </c>
-      <c r="B245" t="str">
+      <c r="B334" t="str">
+        <v>37463764</v>
+      </c>
+      <c r="C334" t="str">
+        <v>0</v>
+      </c>
+      <c r="D334" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>564602</v>
+      </c>
+      <c r="B335" t="str">
+        <v>38035334</v>
+      </c>
+      <c r="C335" t="str">
+        <v>1901569103189603</v>
+      </c>
+      <c r="D335" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>564602</v>
+      </c>
+      <c r="B336" t="str">
+        <v>38041459</v>
+      </c>
+      <c r="C336" t="str">
+        <v>1953989705109304</v>
+      </c>
+      <c r="D336" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>564602</v>
+      </c>
+      <c r="B337" t="str">
         <v>38058125</v>
       </c>
-      <c r="C245" t="str">
+      <c r="C337" t="str">
         <v>1953989705109304</v>
       </c>
-      <c r="D245" t="str">
+      <c r="D337" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D245"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D337"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5172,262 +6736,330 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
+        <v>0xc1612C97537c2CC62a11FC4516367AB6F62d4B23</v>
       </c>
       <c r="B2" t="str">
-        <v>0.001304881981404184</v>
+        <v>0.000000130429899154</v>
       </c>
       <c r="C2" t="str">
-        <v>1054.34</v>
+        <v>0.14</v>
       </c>
       <c r="D2" t="str">
-        <v>74318.48</v>
+        <v>8.2</v>
       </c>
       <c r="E2" t="str">
-        <v>210868</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa4fF2Ff7c9dCc78b76Ac381E2d06938B88bd8804</v>
       </c>
       <c r="B3" t="str">
-        <v>0.01777281243163851</v>
+        <v>0.000280113041253049</v>
       </c>
       <c r="C3" t="str">
-        <v>22631.76</v>
+        <v>206.24</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>15323.34</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>52276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
+        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
       </c>
       <c r="B4" t="str">
-        <v>0.000720934452865584</v>
+        <v>0.002735150518091685</v>
       </c>
       <c r="C4" t="str">
-        <v>430.47</v>
+        <v>1955.6</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>50927.92</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>173742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
+        <v>0xCD7a60306d8315B0b611De60B38Ae0B623062b2e</v>
       </c>
       <c r="B5" t="str">
-        <v>0.003343164078406239</v>
+        <v>0.000972434312458434</v>
       </c>
       <c r="C5" t="str">
-        <v>6103</v>
+        <v>488.98</v>
       </c>
       <c r="D5" t="str">
-        <v>310298.39</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>880427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
       <c r="B6" t="str">
-        <v>0.000733998705858306</v>
+        <v>0.000270559798178671</v>
       </c>
       <c r="C6" t="str">
-        <v>1422.51</v>
+        <v>278.33</v>
       </c>
       <c r="D6" t="str">
-        <v>0</v>
+        <v>17119.89</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>58405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
+        <v>0x93E7fB017883f56fBc43f5723eCcCf6bF90FE6cF</v>
       </c>
       <c r="B7" t="str">
-        <v>0.000292586362906153</v>
+        <v>0.000154961323740931</v>
       </c>
       <c r="C7" t="str">
-        <v>632.97</v>
+        <v>113.07</v>
       </c>
       <c r="D7" t="str">
-        <v>30640.14</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>86937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="B8" t="str">
-        <v>0.000416568201423573</v>
+        <v>0.000531267891268609</v>
       </c>
       <c r="C8" t="str">
-        <v>899.37</v>
+        <v>2198.69</v>
       </c>
       <c r="D8" t="str">
-        <v>43559.92</v>
+        <v>82045.66</v>
       </c>
       <c r="E8" t="str">
-        <v>123595</v>
+        <v>279901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
+        <v>0x4651B2E464e94c730725F3D5B2737418E2e5fd32</v>
       </c>
       <c r="B9" t="str">
-        <v>0.000119328284713097</v>
+        <v>0.001304881981404184</v>
       </c>
       <c r="C9" t="str">
-        <v>120.42</v>
+        <v>1054.34</v>
       </c>
       <c r="D9" t="str">
-        <v>7641.97</v>
+        <v>74125.74</v>
       </c>
       <c r="E9" t="str">
-        <v>21683</v>
+        <v>252882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="B10" t="str">
-        <v>0.000334551975600832</v>
+        <v>0.01777281243163851</v>
       </c>
       <c r="C10" t="str">
-        <v>779.51</v>
+        <v>22631.76</v>
       </c>
       <c r="D10" t="str">
-        <v>36999.93</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>104982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x0380ad3322Df94334C2f30CEE24D3086FC6F3445</v>
       </c>
       <c r="B11" t="str">
-        <v>0.000304022293696658</v>
+        <v>0.003343164078406239</v>
       </c>
       <c r="C11" t="str">
-        <v>1972.52</v>
+        <v>6103</v>
       </c>
       <c r="D11" t="str">
-        <v>78177</v>
+        <v>289626.59</v>
       </c>
       <c r="E11" t="str">
-        <v>221816</v>
+        <v>988069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+        <v>0xdcE6F2ccaf54de860a5f80DB7503154957d216D5</v>
       </c>
       <c r="B12" t="str">
-        <v>0.000078331352922114</v>
+        <v>0.000733998705858306</v>
       </c>
       <c r="C12" t="str">
-        <v>102.93</v>
+        <v>1422.51</v>
       </c>
       <c r="D12" t="str">
-        <v>5858.27</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>16622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xf5DFA78573d859Ba64522B44FF0F7f970cFc5D78</v>
+        <v>0xBa44825f3215A71b34a702A70373afF8d4A52390</v>
       </c>
       <c r="B13" t="str">
-        <v>0.000401001584108285</v>
+        <v>0.000292586362906153</v>
       </c>
       <c r="C13" t="str">
-        <v>1284.3</v>
+        <v>632.97</v>
       </c>
       <c r="D13" t="str">
-        <v>56683.05</v>
+        <v>28244.82</v>
       </c>
       <c r="E13" t="str">
-        <v>160830</v>
+        <v>96358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="B14" t="str">
-        <v>0.000005550267079832</v>
+        <v>0.000416568201423573</v>
       </c>
       <c r="C14" t="str">
-        <v>13.49</v>
+        <v>899.37</v>
       </c>
       <c r="D14" t="str">
-        <v>633.33</v>
+        <v>40160.31</v>
       </c>
       <c r="E14" t="str">
-        <v>1797</v>
+        <v>137008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+        <v>0xc38eDb1B53c7c034867BdE801e24826687F24466</v>
       </c>
       <c r="B15" t="str">
-        <v>0.000172329170221939</v>
+        <v>0.000119328284713097</v>
       </c>
       <c r="C15" t="str">
-        <v>514.61</v>
+        <v>120.42</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>7481.98</v>
       </c>
       <c r="E15" t="str">
-        <v>0</v>
+        <v>25525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0.000334551975600832</v>
+      </c>
+      <c r="C16" t="str">
+        <v>779.51</v>
+      </c>
+      <c r="D16" t="str">
+        <v>33930.25</v>
+      </c>
+      <c r="E16" t="str">
+        <v>115754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xf51435DD16E9a346f016A0a9123A7A87D80b28AA</v>
+      </c>
+      <c r="B17" t="str">
+        <v>0.000078331352922114</v>
+      </c>
+      <c r="C17" t="str">
+        <v>102.93</v>
+      </c>
+      <c r="D17" t="str">
+        <v>5611.56</v>
+      </c>
+      <c r="E17" t="str">
+        <v>19144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x5196E6ff6b95536874ba6405c11f465e026099e0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0.000005550267079832</v>
+      </c>
+      <c r="C18" t="str">
+        <v>13.49</v>
+      </c>
+      <c r="D18" t="str">
+        <v>579.21</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x19D27Bd32c639C4b5DaA9b9D05AD2401A79224F0</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0.000172329170221939</v>
+      </c>
+      <c r="C19" t="str">
+        <v>514.61</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>0x87029960cb6d1011289d35bC8944d37B88C46B72</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B20" t="str">
         <v>0.000019772099074353</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C20" t="str">
         <v>78.73</v>
       </c>
-      <c r="D16" t="str">
-        <v>3337.61</v>
-      </c>
-      <c r="E16" t="str">
-        <v>9470</v>
+      <c r="D20" t="str">
+        <v>2962.6</v>
+      </c>
+      <c r="E20" t="str">
+        <v>10107</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>